--- a/Life expectancy by country.xlsx
+++ b/Life expectancy by country.xlsx
@@ -1,36 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c4caed7680af5a4/Dokumentumok/Web_Dev/My Apps on Github/weeks-remaining-in-your-life/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C0F2206-42CF-4170-9AB1-C7F06E118AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F54DAE50-A672-4715-A458-5CD098F3417C}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -46,13 +25,13 @@
     <t>Life Expectancy</t>
   </si>
   <si>
+    <t>Females</t>
+  </si>
+  <si>
+    <t>Males</t>
+  </si>
+  <si>
     <t>(both sexes)</t>
-  </si>
-  <si>
-    <t>Females</t>
-  </si>
-  <si>
-    <t>Males</t>
   </si>
   <si>
     <t>Hong Kong</t>
@@ -661,7 +640,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -669,13 +649,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Noto Sans"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -700,10 +673,16 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -715,26 +694,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFECFF"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFffecff"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFECFFFF"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFecffff"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9F9F9"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFf9f9f9"/>
       </patternFill>
     </fill>
   </fills>
@@ -747,164 +722,200 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FFdddddd"/>
+      </left>
       <right style="medium">
-        <color rgb="FFDDDDDD"/>
+        <color rgb="FFdddddd"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
+      <top style="medium">
+        <color rgb="FFdddddd"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
       <right style="medium">
-        <color rgb="FFDDDDDD"/>
+        <color rgb="FFdddddd"/>
       </right>
       <top style="medium">
-        <color rgb="FFDDDDDD"/>
+        <color rgb="FFdddddd"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFDDDDDD"/>
+        <color rgb="FFdddddd"/>
       </left>
       <right style="medium">
-        <color rgb="FFDDDDDD"/>
+        <color rgb="FFdddddd"/>
       </right>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
+        <color rgb="FFdddddd"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
       <right style="medium">
-        <color rgb="FFDDDDDD"/>
+        <color rgb="FFdddddd"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFdddddd"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFdddddd"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFdddddd"/>
       </right>
       <top style="medium">
-        <color rgb="FFDDDDDD"/>
+        <color rgb="FFdddddd"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
+        <color rgb="FFdddddd"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFdddddd"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFdddddd"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFdddddd"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="31">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -915,10 +926,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -945,116 +956,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1066,3623 +1043,3646 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4E92B8-2072-4539-AC07-C11EB0992926}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:E204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" style="28" width="4.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="29" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="30" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="30" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="30" width="14.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="10" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="14">
         <v>85.29</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="15">
         <v>88.17</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="16">
         <v>82.38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25" customFormat="1" s="1">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="19">
         <v>85.03</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="15">
         <v>88.09</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="16">
         <v>81.91</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="14">
         <v>84.68</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="15">
         <v>87.62</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="16">
         <v>81.73</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25" customFormat="1" s="1">
+      <c r="A6" s="17">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="19">
         <v>84.25</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="15">
         <v>86.02</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="16">
         <v>82.42</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="14">
         <v>84.07</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="15">
         <v>86.15</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="16">
         <v>82.06</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25" customFormat="1" s="1">
+      <c r="A8" s="17">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="19">
         <v>84.01</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="15">
         <v>85.97</v>
       </c>
-      <c r="E8" s="13">
-        <v>81.900000000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="16">
+        <v>81.9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="14">
         <v>83.99</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="15">
         <v>86.68</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="16">
         <v>81.27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25" customFormat="1" s="1">
+      <c r="A10" s="17">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="19">
         <v>83.94</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="15">
         <v>85.8</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="16">
         <v>82.08</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="14">
         <v>83.6</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="15">
         <v>85.31</v>
       </c>
-      <c r="E11" s="13">
-        <v>81.819999999999993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14">
+      <c r="E11" s="16">
+        <v>81.82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25" customFormat="1" s="1">
+      <c r="A12" s="17">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="19">
         <v>83.52</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="15">
         <v>84.9</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="16">
         <v>82.15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="14">
         <v>83.5</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="15">
         <v>86.42</v>
       </c>
-      <c r="E13" s="13">
-        <v>80.459999999999994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14">
+      <c r="E13" s="16">
+        <v>80.46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25" customFormat="1" s="1">
+      <c r="A14" s="17">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="19">
         <v>83.49</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="15">
         <v>84.91</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="16">
         <v>81.98</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="14">
         <v>83.33</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="15">
         <v>84.97</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="16">
         <v>81.69</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25" customFormat="1" s="1">
+      <c r="A16" s="17">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="19">
         <v>83.13</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="15">
         <v>86.1</v>
       </c>
-      <c r="E16" s="13">
-        <v>79.849999999999994</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="16">
+        <v>79.85</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A17" s="12">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="14">
         <v>83.13</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="15">
         <v>85.82</v>
       </c>
-      <c r="E17" s="13">
-        <v>80.319999999999993</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14">
+      <c r="E17" s="16">
+        <v>80.32</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25" customFormat="1" s="1">
+      <c r="A18" s="17">
         <v>15</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="19">
         <v>83.06</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="15">
         <v>84.68</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="16">
         <v>81.37</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="14">
         <v>82.96</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="15">
         <v>84.74</v>
       </c>
-      <c r="E19" s="13">
-        <v>81.150000000000006</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="14">
+      <c r="E19" s="16">
+        <v>81.15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25" customFormat="1" s="1">
+      <c r="A20" s="17">
         <v>17</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="19">
         <v>82.94</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="15">
         <v>84.78</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="16">
         <v>81.11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A21" s="12">
         <v>18</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="14">
         <v>82.81</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="15">
         <v>84.32</v>
       </c>
-      <c r="E21" s="13">
-        <v>81.290000000000006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="14">
+      <c r="E21" s="16">
+        <v>81.29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A22" s="17">
         <v>19</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="19">
         <v>82.8</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="15">
         <v>84.38</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="16">
         <v>81.2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A23" s="12">
         <v>19</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="14">
         <v>82.8</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="15">
         <v>85.08</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="16">
         <v>80.52</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="14">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A24" s="17">
         <v>20</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="19">
         <v>82.79</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="15">
         <v>84.76</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="16">
         <v>80.83</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A25" s="12">
         <v>21</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="14">
         <v>82.78</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="15">
         <v>84.35</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="16">
         <v>81.2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="14">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A26" s="17">
         <v>22</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="19">
         <v>82.74</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="15">
         <v>85.94</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="16">
         <v>79.16</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A27" s="12">
         <v>23</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="14">
         <v>82.65</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="15">
         <v>85.28</v>
       </c>
-      <c r="E27" s="13">
-        <v>79.790000000000006</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="14">
+      <c r="E27" s="16">
+        <v>79.79</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A28" s="17">
         <v>24</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="19">
         <v>82.48</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="15">
         <v>85.14</v>
       </c>
-      <c r="E28" s="13">
-        <v>79.819999999999993</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="16">
+        <v>79.82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A29" s="12">
         <v>25</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="14">
         <v>82.17</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="15">
         <v>84.31</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="20">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="14">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A30" s="17">
         <v>26</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="19">
         <v>82.05</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="15">
         <v>84.19</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="16">
         <v>79.88</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A31" s="12">
         <v>27</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="14">
         <v>81.88</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="15">
         <v>84.14</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="16">
         <v>79.62</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="14">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A32" s="17">
         <v>28</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="7">
-        <v>81.849999999999994</v>
-      </c>
-      <c r="D32" s="5">
+      <c r="C32" s="19">
+        <v>81.85</v>
+      </c>
+      <c r="D32" s="15">
         <v>84.44</v>
       </c>
-      <c r="E32" s="13">
-        <v>79.260000000000005</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E32" s="16">
+        <v>79.26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A33" s="12">
         <v>29</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="14">
         <v>81.77</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="15">
         <v>83.28</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="16">
         <v>80.22</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="14">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A34" s="17">
         <v>30</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="19">
         <v>81.55</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="15">
         <v>84.45</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="16">
         <v>78.52</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A35" s="12">
         <v>31</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="4">
-        <v>81.510000000000005</v>
-      </c>
-      <c r="D35" s="5">
+      <c r="C35" s="14">
+        <v>81.51</v>
+      </c>
+      <c r="D35" s="15">
         <v>83.45</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="16">
         <v>79.55</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="14">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A36" s="17">
         <v>32</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="7">
-        <v>81.400000000000006</v>
-      </c>
-      <c r="D36" s="5">
+      <c r="C36" s="19">
+        <v>81.4</v>
+      </c>
+      <c r="D36" s="15">
         <v>83.27</v>
       </c>
-      <c r="E36" s="13">
-        <v>79.540000000000006</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E36" s="16">
+        <v>79.54</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A37" s="12">
         <v>33</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="14">
         <v>81.17</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="15">
         <v>83.52</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="16">
         <v>78.64</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="14">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A38" s="17">
         <v>34</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="7">
-        <v>81.040000000000006</v>
-      </c>
-      <c r="D38" s="5">
+      <c r="C38" s="19">
+        <v>81.04</v>
+      </c>
+      <c r="D38" s="15">
         <v>83.64</v>
       </c>
-      <c r="E38" s="13">
-        <v>78.489999999999995</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E38" s="16">
+        <v>78.49</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A39" s="12">
         <v>35</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="14">
         <v>80.94</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="15">
         <v>83.39</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="16">
         <v>78.53</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="14">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A40" s="17">
         <v>36</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="7">
-        <v>80.739999999999995</v>
-      </c>
-      <c r="D40" s="5">
+      <c r="C40" s="19">
+        <v>80.74</v>
+      </c>
+      <c r="D40" s="15">
         <v>83.98</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="16">
         <v>77.63</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A41" s="12">
         <v>36</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="4">
-        <v>80.739999999999995</v>
-      </c>
-      <c r="D41" s="5">
+      <c r="C41" s="14">
+        <v>80.74</v>
+      </c>
+      <c r="D41" s="15">
         <v>82.8</v>
       </c>
-      <c r="E41" s="13">
-        <v>78.540000000000006</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="14">
+      <c r="E41" s="16">
+        <v>78.54</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A42" s="17">
         <v>37</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="19">
         <v>80.73</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="15">
         <v>82.49</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="16">
         <v>79.78</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A43" s="12">
         <v>38</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="14">
         <v>80.69</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="15">
         <v>83.92</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="16">
         <v>77.27</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="14">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A44" s="17">
         <v>39</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="19">
         <v>80.53</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="15">
         <v>83.38</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="16">
         <v>77.8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A45" s="12">
         <v>40</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="14">
         <v>79.89</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="15">
         <v>81.58</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="16">
         <v>78.53</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="14">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A46" s="17">
         <v>41</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="7">
-        <v>79.849999999999994</v>
-      </c>
-      <c r="D46" s="5">
+      <c r="C46" s="19">
+        <v>79.85</v>
+      </c>
+      <c r="D46" s="15">
         <v>83.24</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="16">
         <v>76.62</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A47" s="12">
         <v>41</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="4">
-        <v>79.849999999999994</v>
-      </c>
-      <c r="D47" s="5">
+      <c r="C47" s="14">
+        <v>79.85</v>
+      </c>
+      <c r="D47" s="15">
         <v>82.35</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="16">
         <v>77.33</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="14">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A48" s="17">
         <v>42</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="19">
         <v>79.64</v>
       </c>
-      <c r="D48" s="5">
-        <v>80.849999999999994</v>
-      </c>
-      <c r="E48" s="13">
+      <c r="D48" s="15">
+        <v>80.85</v>
+      </c>
+      <c r="E48" s="16">
         <v>78.36</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A49" s="12">
         <v>43</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="14">
         <v>79.41</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="15">
         <v>82.08</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="16">
         <v>76.42</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="14">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A50" s="17">
         <v>44</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="19">
         <v>79.27</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="15">
         <v>82.98</v>
       </c>
-      <c r="E50" s="13">
-        <v>75.510000000000005</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E50" s="16">
+        <v>75.51</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A51" s="12">
         <v>44</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="14">
         <v>79.27</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="15">
         <v>81.17</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="16">
         <v>77.53</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="14">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A52" s="17">
         <v>45</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="7">
-        <v>79.180000000000007</v>
-      </c>
-      <c r="D52" s="5">
+      <c r="C52" s="19">
+        <v>79.18</v>
+      </c>
+      <c r="D52" s="15">
         <v>81.12</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="16">
         <v>77.25</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A53" s="12">
         <v>45</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="4">
-        <v>79.180000000000007</v>
-      </c>
-      <c r="D53" s="5">
+      <c r="C53" s="14">
+        <v>79.18</v>
+      </c>
+      <c r="D53" s="15">
         <v>83.06</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="16">
         <v>74.98</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="14">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A54" s="17">
         <v>46</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="19">
         <v>79.11</v>
       </c>
-      <c r="D54" s="5">
-        <v>81.650000000000006</v>
-      </c>
-      <c r="E54" s="13">
+      <c r="D54" s="15">
+        <v>81.65</v>
+      </c>
+      <c r="E54" s="16">
         <v>76.61</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A55" s="12">
         <v>47</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="4">
-        <v>79.099999999999994</v>
-      </c>
-      <c r="D55" s="5">
+      <c r="C55" s="14">
+        <v>79.1</v>
+      </c>
+      <c r="D55" s="15">
         <v>82.2</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="16">
         <v>76.14</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="14">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A56" s="17">
         <v>48</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="19">
         <v>79.02</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="15">
         <v>82.02</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="16">
         <v>75.95</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A57" s="12">
         <v>49</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="4">
-        <v>78.959999999999994</v>
-      </c>
-      <c r="D57" s="5">
+      <c r="C57" s="14">
+        <v>78.96</v>
+      </c>
+      <c r="D57" s="15">
         <v>80.48</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="16">
         <v>77.48</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="14">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A58" s="17">
         <v>50</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="19">
         <v>78.58</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="15">
         <v>80.94</v>
       </c>
-      <c r="E58" s="13">
-        <v>76.900000000000006</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E58" s="16">
+        <v>76.9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A59" s="12">
         <v>51</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="4">
-        <v>78.459999999999994</v>
-      </c>
-      <c r="D59" s="5">
+      <c r="C59" s="14">
+        <v>78.46</v>
+      </c>
+      <c r="D59" s="15">
         <v>79.8</v>
       </c>
-      <c r="E59" s="13">
-        <v>77.790000000000006</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="14">
+      <c r="E59" s="16">
+        <v>77.79</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A60" s="17">
         <v>52</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="19">
         <v>78.45</v>
       </c>
-      <c r="D60" s="5">
-        <v>81.209999999999994</v>
-      </c>
-      <c r="E60" s="13">
-        <v>75.569999999999993</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D60" s="15">
+        <v>81.21</v>
+      </c>
+      <c r="E60" s="16">
+        <v>75.57</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A61" s="12">
         <v>53</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="4">
-        <v>78.430000000000007</v>
-      </c>
-      <c r="D61" s="5">
+      <c r="C61" s="14">
+        <v>78.43</v>
+      </c>
+      <c r="D61" s="15">
         <v>81.88</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E61" s="16">
         <v>74.75</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="14">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A62" s="17">
         <v>54</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="19">
         <v>78.23</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="15">
         <v>80.41</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E62" s="16">
         <v>76.23</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A63" s="12">
         <v>55</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="14">
         <v>78.16</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="15">
         <v>80.89</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="16">
         <v>75.61</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="14">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A64" s="17">
         <v>56</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="21">
         <v>78</v>
       </c>
-      <c r="D64" s="5">
-        <v>81.349999999999994</v>
-      </c>
-      <c r="E64" s="13">
+      <c r="D64" s="15">
+        <v>81.35</v>
+      </c>
+      <c r="E64" s="16">
         <v>74.59</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A65" s="12">
         <v>57</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="4">
-        <v>77.930000000000007</v>
-      </c>
-      <c r="D65" s="5">
-        <v>80.319999999999993</v>
-      </c>
-      <c r="E65" s="13">
+      <c r="C65" s="14">
+        <v>77.93</v>
+      </c>
+      <c r="D65" s="15">
+        <v>80.32</v>
+      </c>
+      <c r="E65" s="16">
         <v>75.48</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="14">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A66" s="17">
         <v>58</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="19">
         <v>77.87</v>
       </c>
-      <c r="D66" s="5">
-        <v>80.540000000000006</v>
-      </c>
-      <c r="E66" s="13">
-        <v>75.180000000000007</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D66" s="15">
+        <v>80.54</v>
+      </c>
+      <c r="E66" s="16">
+        <v>75.18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A67" s="12">
         <v>59</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="4">
-        <v>77.739999999999995</v>
-      </c>
-      <c r="D67" s="5">
+      <c r="C67" s="14">
+        <v>77.74</v>
+      </c>
+      <c r="D67" s="15">
         <v>81.34</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E67" s="16">
         <v>74.16</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="14">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A68" s="17">
         <v>60</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="19">
         <v>77.73</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="15">
         <v>78.88</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E68" s="16">
         <v>76.87</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A69" s="12">
         <v>61</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C69" s="4">
-        <v>77.709999999999994</v>
-      </c>
-      <c r="D69" s="5">
+      <c r="C69" s="14">
+        <v>77.71</v>
+      </c>
+      <c r="D69" s="15">
         <v>80.45</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E69" s="16">
         <v>75.05</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="14">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A70" s="17">
         <v>62</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="19">
         <v>77.56</v>
       </c>
-      <c r="D70" s="5">
-        <v>80.739999999999995</v>
-      </c>
-      <c r="E70" s="13">
+      <c r="D70" s="15">
+        <v>80.74</v>
+      </c>
+      <c r="E70" s="16">
         <v>74.25</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A71" s="12">
         <v>63</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="14">
         <v>77.5</v>
       </c>
-      <c r="D71" s="5">
-        <v>78.760000000000005</v>
-      </c>
-      <c r="E71" s="13">
+      <c r="D71" s="15">
+        <v>78.76</v>
+      </c>
+      <c r="E71" s="16">
         <v>76.3</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="14">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A72" s="17">
         <v>64</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="19">
         <v>77.47</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="15">
         <v>78.58</v>
       </c>
-      <c r="E72" s="13">
-        <v>76.260000000000005</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E72" s="16">
+        <v>76.26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A73" s="12">
         <v>64</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="14">
         <v>77.47</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="15">
         <v>79.73</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E73" s="16">
         <v>75.36</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="14">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A74" s="17">
         <v>65</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="19">
         <v>77.44</v>
       </c>
-      <c r="D74" s="5">
-        <v>80.150000000000006</v>
-      </c>
-      <c r="E74" s="13">
+      <c r="D74" s="15">
+        <v>80.15</v>
+      </c>
+      <c r="E74" s="16">
         <v>74.87</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A75" s="12">
         <v>66</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="4">
-        <v>77.430000000000007</v>
-      </c>
-      <c r="D75" s="5">
+      <c r="C75" s="14">
+        <v>77.43</v>
+      </c>
+      <c r="D75" s="15">
         <v>78.66</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E75" s="16">
         <v>76.17</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="14">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A76" s="17">
         <v>67</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="19">
         <v>77.39</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="15">
         <v>79.77</v>
       </c>
-      <c r="E76" s="13">
-        <v>74.989999999999995</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E76" s="16">
+        <v>74.99</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A77" s="12">
         <v>68</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="14">
         <v>77.36</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="15">
         <v>79.34</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E77" s="16">
         <v>75.37</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="14">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A78" s="17">
         <v>69</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="19">
         <v>77.33</v>
       </c>
-      <c r="D78" s="5">
-        <v>78.540000000000006</v>
-      </c>
-      <c r="E78" s="13">
+      <c r="D78" s="15">
+        <v>78.54</v>
+      </c>
+      <c r="E78" s="16">
         <v>76.22</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A79" s="12">
         <v>70</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="14">
         <v>77.31</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="15">
         <v>80.66</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E79" s="16">
         <v>73.78</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="14">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A80" s="17">
         <v>71</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="19">
         <v>77.17</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="15">
         <v>80.42</v>
       </c>
-      <c r="E80" s="13">
-        <v>73.819999999999993</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E80" s="16">
+        <v>73.82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A81" s="12">
         <v>72</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C81" s="4">
-        <v>76.790000000000006</v>
-      </c>
-      <c r="D81" s="5">
-        <v>79.099999999999994</v>
-      </c>
-      <c r="E81" s="13">
-        <v>74.260000000000005</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="14">
+      <c r="C81" s="14">
+        <v>76.79</v>
+      </c>
+      <c r="D81" s="15">
+        <v>79.1</v>
+      </c>
+      <c r="E81" s="16">
+        <v>74.26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A82" s="17">
         <v>73</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="19">
         <v>76.67</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="15">
         <v>78.06</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E82" s="16">
         <v>75.27</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A83" s="12">
         <v>74</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C83" s="4">
-        <v>76.650000000000006</v>
-      </c>
-      <c r="D83" s="5">
+      <c r="C83" s="14">
+        <v>76.65</v>
+      </c>
+      <c r="D83" s="15">
         <v>78.78</v>
       </c>
-      <c r="E83" s="13">
-        <v>74.709999999999994</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="14">
+      <c r="E83" s="16">
+        <v>74.71</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A84" s="17">
         <v>75</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C84" s="7">
-        <v>76.569999999999993</v>
-      </c>
-      <c r="D84" s="5">
+      <c r="C84" s="19">
+        <v>76.57</v>
+      </c>
+      <c r="D84" s="15">
         <v>80.14</v>
       </c>
-      <c r="E84" s="13">
-        <v>73.010000000000005</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E84" s="16">
+        <v>73.01</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A85" s="12">
         <v>76</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="14">
         <v>76.5</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="15">
         <v>79.91</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E85" s="16">
         <v>73.13</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="14">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A86" s="17">
         <v>77</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="19">
         <v>76.47</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="15">
         <v>79.05</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E86" s="16">
         <v>73.89</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A87" s="12">
         <v>78</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="14">
         <v>76.41</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="15">
         <v>81.7</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E87" s="16">
         <v>70.97</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="14">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A88" s="17">
         <v>79</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C88" s="7">
-        <v>76.349999999999994</v>
-      </c>
-      <c r="D88" s="5">
+      <c r="C88" s="19">
+        <v>76.35</v>
+      </c>
+      <c r="D88" s="15">
         <v>77.64</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E88" s="16">
         <v>75.17</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A89" s="12">
         <v>80</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C89" s="4">
-        <v>76.260000000000005</v>
-      </c>
-      <c r="D89" s="5">
-        <v>78.319999999999993</v>
-      </c>
-      <c r="E89" s="13">
-        <v>74.260000000000005</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="14">
+      <c r="C89" s="14">
+        <v>76.26</v>
+      </c>
+      <c r="D89" s="15">
+        <v>78.32</v>
+      </c>
+      <c r="E89" s="16">
+        <v>74.26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A90" s="17">
         <v>81</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="19">
         <v>76.06</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="15">
         <v>79.11</v>
       </c>
-      <c r="E90" s="13">
+      <c r="E90" s="16">
         <v>73.13</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A91" s="12">
         <v>82</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="14">
         <v>75.87</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="15">
         <v>78.14</v>
       </c>
-      <c r="E91" s="13">
-        <v>73.569999999999993</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="14">
+      <c r="E91" s="16">
+        <v>73.57</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A92" s="17">
         <v>83</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C92" s="7">
-        <v>75.849999999999994</v>
-      </c>
-      <c r="D92" s="5">
+      <c r="C92" s="19">
+        <v>75.85</v>
+      </c>
+      <c r="D92" s="15">
         <v>77.06</v>
       </c>
-      <c r="E92" s="13">
+      <c r="E92" s="16">
         <v>75.09</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A93" s="12">
         <v>84</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="14">
         <v>75.77</v>
       </c>
-      <c r="D93" s="5">
-        <v>79.849999999999994</v>
-      </c>
-      <c r="E93" s="13">
+      <c r="D93" s="15">
+        <v>79.85</v>
+      </c>
+      <c r="E93" s="16">
         <v>71.73</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="14">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A94" s="17">
         <v>85</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C94" s="19">
         <v>75.73</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94" s="15">
         <v>80.37</v>
       </c>
-      <c r="E94" s="13">
+      <c r="E94" s="16">
         <v>70.81</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A95" s="12">
         <v>86</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="14">
         <v>75.69</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="15">
         <v>77.37</v>
       </c>
-      <c r="E95" s="13">
+      <c r="E95" s="16">
         <v>74.47</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="14">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A96" s="17">
         <v>87</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="19">
         <v>75.55</v>
       </c>
-      <c r="D96" s="5">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="E96" s="13">
-        <v>71.819999999999993</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D96" s="15">
+        <v>78.9</v>
+      </c>
+      <c r="E96" s="16">
+        <v>71.82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A97" s="12">
         <v>88</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C97" s="4">
-        <v>75.510000000000005</v>
-      </c>
-      <c r="D97" s="5">
+      <c r="C97" s="14">
+        <v>75.51</v>
+      </c>
+      <c r="D97" s="15">
         <v>78.92</v>
       </c>
-      <c r="E97" s="13">
-        <v>72.209999999999994</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="14">
+      <c r="E97" s="16">
+        <v>72.21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A98" s="17">
         <v>89</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C98" s="7">
-        <v>75.489999999999995</v>
-      </c>
-      <c r="D98" s="5">
+      <c r="C98" s="19">
+        <v>75.49</v>
+      </c>
+      <c r="D98" s="15">
         <v>79.06</v>
       </c>
-      <c r="E98" s="13">
+      <c r="E98" s="16">
         <v>72.05</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A99" s="12">
         <v>90</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="14">
         <v>75.41</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="15">
         <v>78.17</v>
       </c>
-      <c r="E99" s="13">
+      <c r="E99" s="16">
         <v>72.62</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="14">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A100" s="17">
         <v>91</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C100" s="7">
+      <c r="C100" s="19">
         <v>75.23</v>
       </c>
-      <c r="D100" s="5">
-        <v>78.650000000000006</v>
-      </c>
-      <c r="E100" s="13">
+      <c r="D100" s="15">
+        <v>78.65</v>
+      </c>
+      <c r="E100" s="16">
         <v>71.75</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A101" s="12">
         <v>92</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="14">
         <v>75.2</v>
       </c>
-      <c r="D101" s="5">
-        <v>79.900000000000006</v>
-      </c>
-      <c r="E101" s="13">
-        <v>70.150000000000006</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="14">
+      <c r="D101" s="15">
+        <v>79.9</v>
+      </c>
+      <c r="E101" s="16">
+        <v>70.15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A102" s="17">
         <v>93</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C102" s="7">
+      <c r="C102" s="19">
         <v>75.09</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102" s="15">
         <v>78.25</v>
       </c>
-      <c r="E102" s="13">
+      <c r="E102" s="16">
         <v>72.14</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A103" s="12">
         <v>94</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="14">
         <v>75.05</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D103" s="15">
         <v>77.89</v>
       </c>
-      <c r="E103" s="13">
+      <c r="E103" s="16">
         <v>72.14</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="14">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A104" s="17">
         <v>95</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C104" s="7">
-        <v>75.010000000000005</v>
-      </c>
-      <c r="D104" s="5">
-        <v>76.819999999999993</v>
-      </c>
-      <c r="E104" s="13">
+      <c r="C104" s="19">
+        <v>75.01</v>
+      </c>
+      <c r="D104" s="15">
+        <v>76.82</v>
+      </c>
+      <c r="E104" s="16">
         <v>73.28</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A105" s="12">
         <v>96</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="14">
         <v>74.88</v>
       </c>
-      <c r="D105" s="5">
-        <v>76.599999999999994</v>
-      </c>
-      <c r="E105" s="13">
+      <c r="D105" s="15">
+        <v>76.6</v>
+      </c>
+      <c r="E105" s="16">
         <v>73.17</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="14">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A106" s="17">
         <v>97</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C106" s="7">
-        <v>74.650000000000006</v>
-      </c>
-      <c r="D106" s="5">
-        <v>77.900000000000006</v>
-      </c>
-      <c r="E106" s="13">
+      <c r="C106" s="19">
+        <v>74.65</v>
+      </c>
+      <c r="D106" s="15">
+        <v>77.9</v>
+      </c>
+      <c r="E106" s="16">
         <v>71.58</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A107" s="12">
         <v>98</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107" s="14">
         <v>74.62</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D107" s="15">
         <v>76.38</v>
       </c>
-      <c r="E107" s="13">
+      <c r="E107" s="16">
         <v>72.92</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="14">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A108" s="17">
         <v>99</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C108" s="7">
+      <c r="C108" s="19">
         <v>74.59</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="15">
         <v>76.78</v>
       </c>
-      <c r="E108" s="13">
+      <c r="E108" s="16">
         <v>72.55</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A109" s="12">
         <v>100</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109" s="14">
         <v>74.28</v>
       </c>
-      <c r="D109" s="5">
-        <v>76.510000000000005</v>
-      </c>
-      <c r="E109" s="13">
+      <c r="D109" s="15">
+        <v>76.51</v>
+      </c>
+      <c r="E109" s="16">
         <v>71.95</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="14">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A110" s="17">
         <v>101</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C110" s="7">
-        <v>74.239999999999995</v>
-      </c>
-      <c r="D110" s="5">
-        <v>78.540000000000006</v>
-      </c>
-      <c r="E110" s="13">
-        <v>69.849999999999994</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C110" s="19">
+        <v>74.24</v>
+      </c>
+      <c r="D110" s="15">
+        <v>78.54</v>
+      </c>
+      <c r="E110" s="16">
+        <v>69.85</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A111" s="12">
         <v>102</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="14">
         <v>74.08</v>
       </c>
-      <c r="D111" s="5">
+      <c r="D111" s="15">
         <v>77.2</v>
       </c>
-      <c r="E111" s="13">
+      <c r="E111" s="16">
         <v>71.14</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="14">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A112" s="17">
         <v>103</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C112" s="7">
+      <c r="C112" s="19">
         <v>74.06</v>
       </c>
-      <c r="D112" s="5">
+      <c r="D112" s="15">
         <v>78.48</v>
       </c>
-      <c r="E112" s="13">
+      <c r="E112" s="16">
         <v>69.27</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A113" s="12">
         <v>104</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113" s="14">
         <v>73.91</v>
       </c>
-      <c r="D113" s="5">
+      <c r="D113" s="15">
         <v>76.66</v>
       </c>
-      <c r="E113" s="13">
-        <v>71.239999999999995</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="14">
+      <c r="E113" s="16">
+        <v>71.24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A114" s="17">
         <v>105</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C114" s="7">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="D114" s="5">
+      <c r="C114" s="19">
+        <v>73.9</v>
+      </c>
+      <c r="D114" s="15">
         <v>77.97</v>
       </c>
-      <c r="E114" s="13">
+      <c r="E114" s="16">
         <v>69.55</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A115" s="12">
         <v>106</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115" s="14">
         <v>73.75</v>
       </c>
-      <c r="D115" s="5">
+      <c r="D115" s="15">
         <v>75.97</v>
       </c>
-      <c r="E115" s="13">
+      <c r="E115" s="16">
         <v>71.69</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="14">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A116" s="17">
         <v>107</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C116" s="7">
-        <v>73.739999999999995</v>
-      </c>
-      <c r="D116" s="5">
-        <v>77.709999999999994</v>
-      </c>
-      <c r="E116" s="13">
-        <v>70.260000000000005</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C116" s="19">
+        <v>73.74</v>
+      </c>
+      <c r="D116" s="15">
+        <v>77.71</v>
+      </c>
+      <c r="E116" s="16">
+        <v>70.26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A117" s="12">
         <v>108</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="14">
         <v>73.58</v>
       </c>
-      <c r="D117" s="5">
+      <c r="D117" s="15">
         <v>76.83</v>
       </c>
-      <c r="E117" s="13">
-        <v>70.150000000000006</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="14">
+      <c r="E117" s="16">
+        <v>70.15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A118" s="17">
         <v>109</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C118" s="7">
-        <v>73.569999999999993</v>
-      </c>
-      <c r="D118" s="5">
-        <v>75.599999999999994</v>
-      </c>
-      <c r="E118" s="13">
+      <c r="C118" s="19">
+        <v>73.57</v>
+      </c>
+      <c r="D118" s="15">
+        <v>75.6</v>
+      </c>
+      <c r="E118" s="16">
         <v>71.8</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A119" s="12">
         <v>110</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="14">
         <v>73.44</v>
       </c>
-      <c r="D119" s="5">
-        <v>76.459999999999994</v>
-      </c>
-      <c r="E119" s="13">
+      <c r="D119" s="15">
+        <v>76.46</v>
+      </c>
+      <c r="E119" s="16">
         <v>70.61</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="14">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A120" s="17">
         <v>111</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C120" s="7">
+      <c r="C120" s="19">
         <v>73.38</v>
       </c>
-      <c r="D120" s="5">
+      <c r="D120" s="15">
         <v>75.31</v>
       </c>
-      <c r="E120" s="13">
-        <v>71.599999999999994</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E120" s="16">
+        <v>71.6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A121" s="12">
         <v>112</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C121" s="14">
         <v>73.33</v>
       </c>
-      <c r="D121" s="5">
+      <c r="D121" s="15">
         <v>75.87</v>
       </c>
-      <c r="E121" s="13">
-        <v>70.760000000000005</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="14">
+      <c r="E121" s="16">
+        <v>70.76</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A122" s="17">
         <v>113</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C122" s="7">
-        <v>72.989999999999995</v>
-      </c>
-      <c r="D122" s="5">
-        <v>78.150000000000006</v>
-      </c>
-      <c r="E122" s="13">
+      <c r="C122" s="19">
+        <v>72.99</v>
+      </c>
+      <c r="D122" s="15">
+        <v>78.15</v>
+      </c>
+      <c r="E122" s="16">
         <v>67.62</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A123" s="12">
         <v>114</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C123" s="4">
+      <c r="C123" s="14">
         <v>72.98</v>
       </c>
-      <c r="D123" s="5">
+      <c r="D123" s="15">
         <v>75.62</v>
       </c>
-      <c r="E123" s="13">
+      <c r="E123" s="16">
         <v>70.66</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="14">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A124" s="17">
         <v>115</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C124" s="7">
+      <c r="C124" s="19">
         <v>72.89</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D124" s="15">
         <v>76.37</v>
       </c>
-      <c r="E124" s="13">
-        <v>69.260000000000005</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E124" s="16">
+        <v>69.26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A125" s="12">
         <v>116</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C125" s="14">
         <v>72.77</v>
       </c>
-      <c r="D125" s="5">
+      <c r="D125" s="15">
         <v>73.33</v>
       </c>
-      <c r="E125" s="13">
+      <c r="E125" s="16">
         <v>72.27</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="14">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A126" s="17">
         <v>117</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C126" s="7">
+      <c r="C126" s="19">
         <v>72.59</v>
       </c>
-      <c r="D126" s="5">
+      <c r="D126" s="15">
         <v>75.16</v>
       </c>
-      <c r="E126" s="13">
-        <v>70.239999999999995</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E126" s="16">
+        <v>70.24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A127" s="12">
         <v>118</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C127" s="4">
-        <v>72.540000000000006</v>
-      </c>
-      <c r="D127" s="5">
+      <c r="C127" s="14">
+        <v>72.54</v>
+      </c>
+      <c r="D127" s="15">
         <v>74.95</v>
       </c>
-      <c r="E127" s="13">
+      <c r="E127" s="16">
         <v>70.23</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="14">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A128" s="17">
         <v>119</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="C128" s="7">
+      <c r="C128" s="19">
         <v>72.5</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128" s="15">
         <v>77.27</v>
       </c>
-      <c r="E128" s="13">
+      <c r="E128" s="16">
         <v>67.56</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A129" s="12">
         <v>120</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C129" s="4">
-        <v>72.349999999999994</v>
-      </c>
-      <c r="D129" s="5">
-        <v>75.349999999999994</v>
-      </c>
-      <c r="E129" s="13">
+      <c r="C129" s="14">
+        <v>72.35</v>
+      </c>
+      <c r="D129" s="15">
+        <v>75.35</v>
+      </c>
+      <c r="E129" s="16">
         <v>69.5</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="14">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A130" s="17">
         <v>121</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="C130" s="7">
+      <c r="C130" s="19">
         <v>72.34</v>
       </c>
-      <c r="D130" s="5">
+      <c r="D130" s="15">
         <v>76.25</v>
       </c>
-      <c r="E130" s="13">
+      <c r="E130" s="16">
         <v>68.59</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A131" s="12">
         <v>122</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C131" s="4">
-        <v>72.319999999999993</v>
-      </c>
-      <c r="D131" s="5">
+      <c r="C131" s="14">
+        <v>72.32</v>
+      </c>
+      <c r="D131" s="15">
         <v>74.64</v>
       </c>
-      <c r="E131" s="13">
+      <c r="E131" s="16">
         <v>70.12</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="14">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A132" s="17">
         <v>123</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="C132" s="7">
+      <c r="C132" s="19">
         <v>72.3</v>
       </c>
-      <c r="D132" s="5">
+      <c r="D132" s="15">
         <v>76.53</v>
       </c>
-      <c r="E132" s="13">
+      <c r="E132" s="16">
         <v>68.02</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A133" s="12">
         <v>124</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C133" s="4">
+      <c r="C133" s="14">
         <v>72.13</v>
       </c>
-      <c r="D133" s="5">
+      <c r="D133" s="15">
         <v>75.55</v>
       </c>
-      <c r="E133" s="13">
+      <c r="E133" s="16">
         <v>68.88</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="14">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A134" s="17">
         <v>125</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="C134" s="7">
-        <v>72.040000000000006</v>
-      </c>
-      <c r="D134" s="5">
-        <v>74.260000000000005</v>
-      </c>
-      <c r="E134" s="13">
+      <c r="C134" s="19">
+        <v>72.04</v>
+      </c>
+      <c r="D134" s="15">
+        <v>74.26</v>
+      </c>
+      <c r="E134" s="16">
         <v>69.8</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A135" s="12">
         <v>126</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C135" s="4">
+      <c r="C135" s="14">
         <v>71.95</v>
       </c>
-      <c r="D135" s="5">
+      <c r="D135" s="15">
         <v>76.03</v>
       </c>
-      <c r="E135" s="13">
-        <v>67.849999999999994</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="14">
+      <c r="E135" s="16">
+        <v>67.85</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A136" s="17">
         <v>127</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="C136" s="7">
-        <v>71.760000000000005</v>
-      </c>
-      <c r="D136" s="5">
+      <c r="C136" s="19">
+        <v>71.76</v>
+      </c>
+      <c r="D136" s="15">
         <v>74.11</v>
       </c>
-      <c r="E136" s="13">
+      <c r="E136" s="16">
         <v>69.5</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A137" s="12">
         <v>128</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C137" s="4">
-        <v>71.739999999999995</v>
-      </c>
-      <c r="D137" s="5">
+      <c r="C137" s="14">
+        <v>71.74</v>
+      </c>
+      <c r="D137" s="15">
         <v>73.23</v>
       </c>
-      <c r="E137" s="13">
+      <c r="E137" s="16">
         <v>70.13</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="14">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A138" s="17">
         <v>129</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="C138" s="7">
+      <c r="C138" s="19">
         <v>71.66</v>
       </c>
-      <c r="D138" s="5">
+      <c r="D138" s="15">
         <v>75.92</v>
       </c>
-      <c r="E138" s="13">
+      <c r="E138" s="16">
         <v>67.67</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A139" s="12">
         <v>130</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C139" s="4">
-        <v>71.319999999999993</v>
-      </c>
-      <c r="D139" s="5">
+      <c r="C139" s="14">
+        <v>71.32</v>
+      </c>
+      <c r="D139" s="15">
         <v>73.38</v>
       </c>
-      <c r="E139" s="13">
+      <c r="E139" s="16">
         <v>69.28</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="14">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A140" s="17">
         <v>131</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C140" s="7">
+      <c r="C140" s="19">
         <v>71.08</v>
       </c>
-      <c r="D140" s="5">
+      <c r="D140" s="15">
         <v>73.19</v>
       </c>
-      <c r="E140" s="13">
+      <c r="E140" s="16">
         <v>69.36</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A141" s="12">
         <v>131</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141" s="14">
         <v>71.08</v>
       </c>
-      <c r="D141" s="5">
-        <v>73.209999999999994</v>
-      </c>
-      <c r="E141" s="13">
-        <v>68.959999999999994</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="14">
+      <c r="D141" s="15">
+        <v>73.21</v>
+      </c>
+      <c r="E141" s="16">
+        <v>68.96</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A142" s="17">
         <v>132</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C142" s="7">
-        <v>71.010000000000005</v>
-      </c>
-      <c r="D142" s="5">
+      <c r="C142" s="19">
+        <v>71.01</v>
+      </c>
+      <c r="D142" s="15">
         <v>73.5</v>
       </c>
-      <c r="E142" s="13">
-        <v>68.540000000000006</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E142" s="16">
+        <v>68.54</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A143" s="12">
         <v>133</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C143" s="4">
-        <v>70.989999999999995</v>
-      </c>
-      <c r="D143" s="5">
+      <c r="C143" s="14">
+        <v>70.99</v>
+      </c>
+      <c r="D143" s="15">
         <v>72.75</v>
       </c>
-      <c r="E143" s="13">
-        <v>69.400000000000006</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="14">
+      <c r="E143" s="16">
+        <v>69.4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A144" s="17">
         <v>134</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B144" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C144" s="7">
-        <v>70.540000000000006</v>
-      </c>
-      <c r="D144" s="5">
+      <c r="C144" s="19">
+        <v>70.54</v>
+      </c>
+      <c r="D144" s="15">
         <v>72.69</v>
       </c>
-      <c r="E144" s="13">
+      <c r="E144" s="16">
         <v>68.2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A145" s="12">
         <v>135</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C145" s="4">
+      <c r="C145" s="14">
         <v>70.53</v>
       </c>
-      <c r="D145" s="5">
-        <v>74.790000000000006</v>
-      </c>
-      <c r="E145" s="13">
-        <v>66.430000000000007</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="14">
+      <c r="D145" s="15">
+        <v>74.79</v>
+      </c>
+      <c r="E145" s="16">
+        <v>66.43</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A146" s="17">
         <v>136</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C146" s="7">
+      <c r="C146" s="19">
         <v>70.42</v>
       </c>
-      <c r="D146" s="5">
+      <c r="D146" s="15">
         <v>71.8</v>
       </c>
-      <c r="E146" s="13">
+      <c r="E146" s="16">
         <v>69.16</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A147" s="12">
         <v>137</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="C147" s="4">
-        <v>70.260000000000005</v>
-      </c>
-      <c r="D147" s="5">
+      <c r="C147" s="14">
+        <v>70.26</v>
+      </c>
+      <c r="D147" s="15">
         <v>73.53</v>
       </c>
-      <c r="E147" s="13">
+      <c r="E147" s="16">
         <v>67.22</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="14">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A148" s="17">
         <v>138</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="C148" s="7">
-        <v>70.180000000000007</v>
-      </c>
-      <c r="D148" s="5">
+      <c r="C148" s="19">
+        <v>70.18</v>
+      </c>
+      <c r="D148" s="15">
         <v>72.36</v>
       </c>
-      <c r="E148" s="13">
+      <c r="E148" s="16">
         <v>68.14</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A149" s="12">
         <v>139</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C149" s="4">
+      <c r="C149" s="22">
         <v>70</v>
       </c>
-      <c r="D149" s="5">
+      <c r="D149" s="15">
         <v>72.16</v>
       </c>
-      <c r="E149" s="13">
+      <c r="E149" s="16">
         <v>67.75</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="14">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A150" s="17">
         <v>140</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C150" s="7">
+      <c r="C150" s="19">
         <v>69.86</v>
       </c>
-      <c r="D150" s="5">
+      <c r="D150" s="15">
         <v>72.69</v>
       </c>
-      <c r="E150" s="13">
+      <c r="E150" s="16">
         <v>66.72</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A151" s="12">
         <v>141</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C151" s="4">
+      <c r="C151" s="14">
         <v>69.17</v>
       </c>
-      <c r="D151" s="5">
+      <c r="D151" s="15">
         <v>73.12</v>
       </c>
-      <c r="E151" s="13">
+      <c r="E151" s="20">
         <v>65</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="14">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A152" s="17">
         <v>142</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B152" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="C152" s="7">
+      <c r="C152" s="19">
         <v>68.89</v>
       </c>
-      <c r="D152" s="5">
-        <v>70.790000000000006</v>
-      </c>
-      <c r="E152" s="13">
-        <v>67.040000000000006</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D152" s="15">
+        <v>70.79</v>
+      </c>
+      <c r="E152" s="16">
+        <v>67.04</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A153" s="12">
         <v>143</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C153" s="4">
+      <c r="C153" s="14">
         <v>68.87</v>
       </c>
-      <c r="D153" s="5">
+      <c r="D153" s="15">
         <v>70.88</v>
       </c>
-      <c r="E153" s="13">
+      <c r="E153" s="16">
         <v>66.64</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="14">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A154" s="17">
         <v>144</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B154" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C154" s="7">
+      <c r="C154" s="19">
         <v>68.63</v>
       </c>
-      <c r="D154" s="5">
+      <c r="D154" s="15">
         <v>72.19</v>
       </c>
-      <c r="E154" s="13">
-        <v>65.099999999999994</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E154" s="16">
+        <v>65.1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A155" s="12">
         <v>145</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C155" s="4">
+      <c r="C155" s="14">
         <v>68.27</v>
       </c>
-      <c r="D155" s="5">
-        <v>70.069999999999993</v>
-      </c>
-      <c r="E155" s="13">
-        <v>66.540000000000006</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="14">
+      <c r="D155" s="15">
+        <v>70.07</v>
+      </c>
+      <c r="E155" s="16">
+        <v>66.54</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A156" s="17">
         <v>146</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C156" s="7">
-        <v>68.209999999999994</v>
-      </c>
-      <c r="D156" s="5">
+      <c r="C156" s="19">
+        <v>68.21</v>
+      </c>
+      <c r="D156" s="15">
         <v>69.92</v>
       </c>
-      <c r="E156" s="13">
+      <c r="E156" s="16">
         <v>66.53</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A157" s="12">
         <v>147</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C157" s="4">
+      <c r="C157" s="14">
         <v>67.91</v>
       </c>
-      <c r="D157" s="5">
+      <c r="D157" s="15">
         <v>69.97</v>
       </c>
-      <c r="E157" s="13">
+      <c r="E157" s="20">
         <v>66</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="14">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A158" s="17">
         <v>148</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B158" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="C158" s="7">
+      <c r="C158" s="19">
         <v>67.87</v>
       </c>
-      <c r="D158" s="5">
+      <c r="D158" s="15">
         <v>70.16</v>
       </c>
-      <c r="E158" s="13">
+      <c r="E158" s="16">
         <v>65.84</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A159" s="12">
         <v>149</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C159" s="4">
+      <c r="C159" s="14">
         <v>67.81</v>
       </c>
-      <c r="D159" s="5">
+      <c r="D159" s="15">
         <v>69.8</v>
       </c>
-      <c r="E159" s="13">
+      <c r="E159" s="16">
         <v>65.86</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="14">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A160" s="17">
         <v>150</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="C160" s="7">
-        <v>67.790000000000006</v>
-      </c>
-      <c r="D160" s="5">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="E160" s="13">
+      <c r="C160" s="19">
+        <v>67.79</v>
+      </c>
+      <c r="D160" s="15">
+        <v>68.9</v>
+      </c>
+      <c r="E160" s="16">
         <v>66.77</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A161" s="12">
         <v>151</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C161" s="4">
+      <c r="C161" s="14">
         <v>67.78</v>
       </c>
-      <c r="D161" s="5">
+      <c r="D161" s="15">
         <v>70.81</v>
       </c>
-      <c r="E161" s="13">
-        <v>64.650000000000006</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="14">
+      <c r="E161" s="16">
+        <v>64.65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A162" s="17">
         <v>152</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="C162" s="7">
+      <c r="C162" s="19">
         <v>67.48</v>
       </c>
-      <c r="D162" s="5">
+      <c r="D162" s="15">
         <v>69.75</v>
       </c>
-      <c r="E162" s="13">
-        <v>65.260000000000005</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E162" s="16">
+        <v>65.26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A163" s="12">
         <v>153</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C163" s="4">
+      <c r="C163" s="14">
         <v>67.47</v>
       </c>
-      <c r="D163" s="5">
+      <c r="D163" s="15">
         <v>69.87</v>
       </c>
-      <c r="E163" s="13">
-        <v>65.040000000000006</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="14">
+      <c r="E163" s="16">
+        <v>65.04</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A164" s="17">
         <v>154</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B164" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="C164" s="7">
+      <c r="C164" s="19">
         <v>67.03</v>
       </c>
-      <c r="D164" s="5">
+      <c r="D164" s="15">
         <v>69.27</v>
       </c>
-      <c r="E164" s="13">
-        <v>64.930000000000007</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E164" s="16">
+        <v>64.93</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A165" s="12">
         <v>155</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C165" s="4">
+      <c r="C165" s="14">
         <v>66.44</v>
       </c>
-      <c r="D165" s="5">
+      <c r="D165" s="15">
         <v>68.16</v>
       </c>
-      <c r="E165" s="13">
+      <c r="E165" s="16">
         <v>64.72</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="14">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A166" s="17">
         <v>156</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="C166" s="7">
+      <c r="C166" s="19">
         <v>66.39</v>
       </c>
-      <c r="D166" s="5">
+      <c r="D166" s="15">
         <v>68.25</v>
       </c>
-      <c r="E166" s="13">
+      <c r="E166" s="16">
         <v>64.52</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A167" s="12">
         <v>157</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C167" s="4">
+      <c r="C167" s="14">
         <v>66.09</v>
       </c>
-      <c r="D167" s="5">
+      <c r="D167" s="15">
         <v>68.03</v>
       </c>
-      <c r="E167" s="13">
-        <v>64.180000000000007</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="14">
+      <c r="E167" s="16">
+        <v>64.18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A168" s="17">
         <v>158</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B168" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="C168" s="7">
+      <c r="C168" s="19">
         <v>65.98</v>
       </c>
-      <c r="D168" s="5">
+      <c r="D168" s="15">
         <v>67.59</v>
       </c>
-      <c r="E168" s="13">
+      <c r="E168" s="16">
         <v>64.47</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A169" s="12">
         <v>159</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C169" s="4">
+      <c r="C169" s="14">
         <v>65.62</v>
       </c>
-      <c r="D169" s="5">
+      <c r="D169" s="15">
         <v>68.77</v>
       </c>
-      <c r="E169" s="13">
+      <c r="E169" s="16">
         <v>62.45</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="14">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A170" s="17">
         <v>160</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="C170" s="7">
-        <v>65.569999999999993</v>
-      </c>
-      <c r="D170" s="5">
-        <v>67.239999999999995</v>
-      </c>
-      <c r="E170" s="13">
+      <c r="C170" s="19">
+        <v>65.57</v>
+      </c>
+      <c r="D170" s="15">
+        <v>67.24</v>
+      </c>
+      <c r="E170" s="16">
         <v>63.88</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A171" s="12">
         <v>161</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C171" s="4">
+      <c r="C171" s="14">
         <v>65.22</v>
       </c>
-      <c r="D171" s="5">
+      <c r="D171" s="15">
         <v>66.62</v>
       </c>
-      <c r="E171" s="13">
+      <c r="E171" s="16">
         <v>63.92</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="14">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A172" s="17">
         <v>162</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B172" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="C172" s="7">
-        <v>65.209999999999994</v>
-      </c>
-      <c r="D172" s="5">
+      <c r="C172" s="19">
+        <v>65.21</v>
+      </c>
+      <c r="D172" s="15">
         <v>66.73</v>
       </c>
-      <c r="E172" s="13">
+      <c r="E172" s="16">
         <v>63.67</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A173" s="12">
         <v>163</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C173" s="4">
+      <c r="C173" s="14">
         <v>65.03</v>
       </c>
-      <c r="D173" s="5">
+      <c r="D173" s="15">
         <v>66.88</v>
       </c>
-      <c r="E173" s="13">
+      <c r="E173" s="16">
         <v>63.24</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="14">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A174" s="17">
         <v>164</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B174" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="C174" s="7">
+      <c r="C174" s="21">
         <v>65</v>
       </c>
-      <c r="D174" s="5">
+      <c r="D174" s="15">
         <v>66.48</v>
       </c>
-      <c r="E174" s="13">
+      <c r="E174" s="16">
         <v>63.54</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A175" s="12">
         <v>165</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="C175" s="4">
-        <v>64.989999999999995</v>
-      </c>
-      <c r="D175" s="5">
-        <v>67.209999999999994</v>
-      </c>
-      <c r="E175" s="13">
+      <c r="C175" s="14">
+        <v>64.99</v>
+      </c>
+      <c r="D175" s="15">
+        <v>67.21</v>
+      </c>
+      <c r="E175" s="16">
         <v>62.77</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="14">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A176" s="17">
         <v>166</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="B176" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="C176" s="7">
+      <c r="C176" s="19">
         <v>64.94</v>
       </c>
-      <c r="D176" s="5">
+      <c r="D176" s="15">
         <v>66.13</v>
       </c>
-      <c r="E176" s="13">
+      <c r="E176" s="16">
         <v>63.78</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A177" s="12">
         <v>167</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C177" s="4">
+      <c r="C177" s="14">
         <v>64.88</v>
       </c>
-      <c r="D177" s="5">
+      <c r="D177" s="15">
         <v>68.42</v>
       </c>
-      <c r="E177" s="13">
+      <c r="E177" s="16">
         <v>61.46</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="14">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A178" s="17">
         <v>168</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="B178" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="C178" s="7">
+      <c r="C178" s="19">
         <v>64.86</v>
       </c>
-      <c r="D178" s="5">
+      <c r="D178" s="15">
         <v>67.67</v>
       </c>
-      <c r="E178" s="13">
+      <c r="E178" s="16">
         <v>61.83</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A179" s="12">
         <v>169</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B179" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C179" s="4">
+      <c r="C179" s="14">
         <v>64.7</v>
       </c>
-      <c r="D179" s="5">
-        <v>67.709999999999994</v>
-      </c>
-      <c r="E179" s="13">
+      <c r="D179" s="15">
+        <v>67.71</v>
+      </c>
+      <c r="E179" s="16">
         <v>61.66</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="14">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A180" s="17">
         <v>170</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="B180" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C180" s="7">
+      <c r="C180" s="19">
         <v>64.38</v>
       </c>
-      <c r="D180" s="5">
+      <c r="D180" s="15">
         <v>66.67</v>
       </c>
-      <c r="E180" s="13">
+      <c r="E180" s="16">
         <v>61.99</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A181" s="12">
         <v>171</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="C181" s="4">
+      <c r="C181" s="14">
         <v>63.62</v>
       </c>
-      <c r="D181" s="5">
+      <c r="D181" s="15">
         <v>64.89</v>
       </c>
-      <c r="E181" s="13">
+      <c r="E181" s="16">
         <v>62.41</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="14">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A182" s="17">
         <v>172</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="B182" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C182" s="7">
+      <c r="C182" s="19">
         <v>63.26</v>
       </c>
-      <c r="D182" s="5">
+      <c r="D182" s="15">
         <v>64.73</v>
       </c>
-      <c r="E182" s="13">
+      <c r="E182" s="16">
         <v>61.8</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A183" s="12">
         <v>173</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C183" s="4">
+      <c r="C183" s="14">
         <v>62.98</v>
       </c>
-      <c r="D183" s="5">
+      <c r="D183" s="15">
         <v>63.78</v>
       </c>
-      <c r="E183" s="13">
+      <c r="E183" s="16">
         <v>62.06</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="14">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A184" s="17">
         <v>174</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="B184" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="C184" s="7">
+      <c r="C184" s="19">
         <v>62.84</v>
       </c>
-      <c r="D184" s="5">
+      <c r="D184" s="15">
         <v>64.45</v>
       </c>
-      <c r="E184" s="13">
+      <c r="E184" s="16">
         <v>61.23</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A185" s="12">
         <v>175</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B185" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C185" s="4">
+      <c r="C185" s="14">
         <v>62.71</v>
       </c>
-      <c r="D185" s="5">
+      <c r="D185" s="15">
         <v>64.56</v>
       </c>
-      <c r="E185" s="13">
+      <c r="E185" s="16">
         <v>60.85</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="14">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A186" s="17">
         <v>176</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="B186" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="C186" s="7">
+      <c r="C186" s="19">
         <v>62.64</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186" s="15">
         <v>63.25</v>
       </c>
-      <c r="E186" s="13">
+      <c r="E186" s="16">
         <v>61.79</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A187" s="12">
         <v>177</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C187" s="4">
+      <c r="C187" s="14">
         <v>62.22</v>
       </c>
-      <c r="D187" s="5">
+      <c r="D187" s="15">
         <v>65.12</v>
       </c>
-      <c r="E187" s="13">
+      <c r="E187" s="16">
         <v>59.46</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="14">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A188" s="17">
         <v>178</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="B188" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="C188" s="7">
+      <c r="C188" s="19">
         <v>62.16</v>
       </c>
-      <c r="D188" s="5">
+      <c r="D188" s="15">
         <v>63.66</v>
       </c>
-      <c r="E188" s="13">
+      <c r="E188" s="16">
         <v>60.39</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A189" s="12">
         <v>179</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C189" s="4">
+      <c r="C189" s="14">
         <v>62.13</v>
       </c>
-      <c r="D189" s="5">
+      <c r="D189" s="15">
         <v>63.08</v>
       </c>
-      <c r="E189" s="13">
+      <c r="E189" s="16">
         <v>61.16</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="14">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A190" s="17">
         <v>179</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="B190" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="C190" s="7">
+      <c r="C190" s="19">
         <v>62.13</v>
       </c>
-      <c r="D190" s="5">
+      <c r="D190" s="15">
         <v>64.95</v>
       </c>
-      <c r="E190" s="13">
+      <c r="E190" s="16">
         <v>59.05</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A191" s="12">
         <v>180</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C191" s="4">
+      <c r="C191" s="14">
         <v>61.6</v>
       </c>
-      <c r="D191" s="5">
+      <c r="D191" s="15">
         <v>63.21</v>
       </c>
-      <c r="E191" s="13">
+      <c r="E191" s="16">
         <v>60.01</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="14">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A192" s="17">
         <v>181</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="B192" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C192" s="7">
+      <c r="C192" s="19">
         <v>61.05</v>
       </c>
-      <c r="D192" s="5">
+      <c r="D192" s="15">
         <v>65.67</v>
       </c>
-      <c r="E192" s="13">
+      <c r="E192" s="16">
         <v>56.98</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A193" s="12">
         <v>182</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="C193" s="4">
+      <c r="C193" s="14">
         <v>60.54</v>
       </c>
-      <c r="D193" s="5">
+      <c r="D193" s="15">
         <v>61.39</v>
       </c>
-      <c r="E193" s="13">
+      <c r="E193" s="16">
         <v>59.69</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="14">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A194" s="17">
         <v>183</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="B194" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="C194" s="7">
+      <c r="C194" s="19">
         <v>60.32</v>
       </c>
-      <c r="D194" s="5">
+      <c r="D194" s="15">
         <v>61.66</v>
       </c>
-      <c r="E194" s="13">
+      <c r="E194" s="16">
         <v>58.99</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A195" s="12">
         <v>184</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C195" s="4">
+      <c r="C195" s="14">
         <v>59.82</v>
       </c>
-      <c r="D195" s="5">
+      <c r="D195" s="15">
         <v>61.08</v>
       </c>
-      <c r="E195" s="13">
+      <c r="E195" s="16">
         <v>58.76</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="14">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A196" s="17">
         <v>185</v>
       </c>
-      <c r="B196" s="6" t="s">
+      <c r="B196" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="C196" s="7">
+      <c r="C196" s="19">
         <v>59.38</v>
       </c>
-      <c r="D196" s="5">
+      <c r="D196" s="15">
         <v>61.33</v>
       </c>
-      <c r="E196" s="13">
+      <c r="E196" s="16">
         <v>57.31</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A197" s="12">
         <v>186</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="C197" s="4">
+      <c r="C197" s="14">
         <v>58.75</v>
       </c>
-      <c r="D197" s="5">
+      <c r="D197" s="15">
         <v>60.13</v>
       </c>
-      <c r="E197" s="13">
+      <c r="E197" s="16">
         <v>57.5</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="14">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A198" s="17">
         <v>187</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="B198" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="C198" s="7">
+      <c r="C198" s="19">
         <v>58.74</v>
       </c>
-      <c r="D198" s="5">
+      <c r="D198" s="15">
         <v>60.31</v>
       </c>
-      <c r="E198" s="13">
+      <c r="E198" s="16">
         <v>57.21</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A199" s="12">
         <v>188</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C199" s="4">
+      <c r="C199" s="14">
         <v>58.34</v>
       </c>
-      <c r="D199" s="5">
+      <c r="D199" s="15">
         <v>60.11</v>
       </c>
-      <c r="E199" s="13">
+      <c r="E199" s="16">
         <v>56.62</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="14">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A200" s="17">
         <v>189</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="B200" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="C200" s="7">
+      <c r="C200" s="19">
         <v>55.92</v>
       </c>
-      <c r="D200" s="5">
+      <c r="D200" s="15">
         <v>56.78</v>
       </c>
-      <c r="E200" s="13">
+      <c r="E200" s="16">
         <v>55.01</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A201" s="12">
         <v>190</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C201" s="4">
+      <c r="C201" s="14">
         <v>55.75</v>
       </c>
-      <c r="D201" s="5">
+      <c r="D201" s="15">
         <v>56.75</v>
       </c>
-      <c r="E201" s="13">
+      <c r="E201" s="16">
         <v>54.8</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="14">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A202" s="17">
         <v>191</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B202" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="C202" s="7">
+      <c r="C202" s="19">
         <v>55.65</v>
       </c>
-      <c r="D202" s="5">
+      <c r="D202" s="15">
         <v>58.9</v>
       </c>
-      <c r="E202" s="13">
+      <c r="E202" s="16">
         <v>52.52</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A203" s="12">
         <v>192</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C203" s="4">
+      <c r="C203" s="14">
         <v>55.17</v>
       </c>
-      <c r="D203" s="5">
+      <c r="D203" s="15">
         <v>56.65</v>
       </c>
-      <c r="E203" s="13">
+      <c r="E203" s="16">
         <v>53.73</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="15">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A204" s="23">
         <v>193</v>
       </c>
-      <c r="B204" s="16" t="s">
+      <c r="B204" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="C204" s="17">
+      <c r="C204" s="25">
         <v>54.36</v>
       </c>
-      <c r="D204" s="18">
+      <c r="D204" s="26">
         <v>56.58</v>
       </c>
-      <c r="E204" s="19">
+      <c r="E204" s="27">
         <v>52.16</v>
       </c>
     </row>
@@ -4691,211 +4691,6 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" location="life-exp" display="https://www.worldometers.info/demographics/china-hong-kong-sar-demographics/ - life-exp" xr:uid="{4472E110-DB27-40AB-BD0B-D1F072C0960E}"/>
-    <hyperlink ref="B4" r:id="rId2" location="life-exp" display="https://www.worldometers.info/demographics/japan-demographics/ - life-exp" xr:uid="{5E23CED0-04D5-4D9D-871D-3095909F0A54}"/>
-    <hyperlink ref="B5" r:id="rId3" location="life-exp" display="https://www.worldometers.info/demographics/china-macao-sar-demographics/ - life-exp" xr:uid="{BA06798B-716F-49FD-AA45-E949012A699F}"/>
-    <hyperlink ref="B6" r:id="rId4" location="life-exp" display="https://www.worldometers.info/demographics/switzerland-demographics/ - life-exp" xr:uid="{B85F0669-7504-4178-B044-8FB3DB3E8F5E}"/>
-    <hyperlink ref="B7" r:id="rId5" location="life-exp" display="https://www.worldometers.info/demographics/singapore-demographics/ - life-exp" xr:uid="{383ED9ED-56CB-44AE-822C-F0332065C91F}"/>
-    <hyperlink ref="B8" r:id="rId6" location="life-exp" display="https://www.worldometers.info/demographics/italy-demographics/ - life-exp" xr:uid="{314E14FE-93B7-4A43-8B24-6B739E6A7952}"/>
-    <hyperlink ref="B9" r:id="rId7" location="life-exp" display="https://www.worldometers.info/demographics/spain-demographics/ - life-exp" xr:uid="{8B7F4A2C-3BAB-41D1-9B73-56F06B0BC7D0}"/>
-    <hyperlink ref="B10" r:id="rId8" location="life-exp" display="https://www.worldometers.info/demographics/australia-demographics/ - life-exp" xr:uid="{78E7C80B-0D6E-40A4-BADE-E0E4EC3413C9}"/>
-    <hyperlink ref="B11" r:id="rId9" location="life-exp" display="https://www.worldometers.info/demographics/channel-islands-demographics/ - life-exp" xr:uid="{38FC6E9B-5421-4485-B62F-E937E6478DB8}"/>
-    <hyperlink ref="B12" r:id="rId10" location="life-exp" display="https://www.worldometers.info/demographics/iceland-demographics/ - life-exp" xr:uid="{B3B7EF6E-092B-4E33-834B-DA4BCF985C32}"/>
-    <hyperlink ref="B13" r:id="rId11" location="life-exp" display="https://www.worldometers.info/demographics/south-korea-demographics/ - life-exp" xr:uid="{FE4F9C82-51A9-4CFB-B47F-ADB8C5E19241}"/>
-    <hyperlink ref="B14" r:id="rId12" location="life-exp" display="https://www.worldometers.info/demographics/israel-demographics/ - life-exp" xr:uid="{F3C57F19-E17D-4E06-992D-EA1F67BC80A7}"/>
-    <hyperlink ref="B15" r:id="rId13" location="life-exp" display="https://www.worldometers.info/demographics/sweden-demographics/ - life-exp" xr:uid="{0B2D3995-3E85-4ADD-8F84-AD87BAE90270}"/>
-    <hyperlink ref="B16" r:id="rId14" location="life-exp" display="https://www.worldometers.info/demographics/martinique-demographics/ - life-exp" xr:uid="{3331AC12-89C6-4F65-96CA-F8875EB7C5CF}"/>
-    <hyperlink ref="B17" r:id="rId15" location="life-exp" display="https://www.worldometers.info/demographics/france-demographics/ - life-exp" xr:uid="{C64C5241-860B-434B-9B73-0878412A7519}"/>
-    <hyperlink ref="B18" r:id="rId16" location="life-exp" display="https://www.worldometers.info/demographics/malta-demographics/ - life-exp" xr:uid="{92D826D4-B3B5-48F2-ABE1-13DD9686B81B}"/>
-    <hyperlink ref="B19" r:id="rId17" location="life-exp" display="https://www.worldometers.info/demographics/canada-demographics/ - life-exp" xr:uid="{BFA54445-F226-4B52-A27C-C6B2CFECEB5B}"/>
-    <hyperlink ref="B20" r:id="rId18" location="life-exp" display="https://www.worldometers.info/demographics/norway-demographics/ - life-exp" xr:uid="{0D0C2793-DFAB-4502-AA2F-3154F9CADA5E}"/>
-    <hyperlink ref="B21" r:id="rId19" location="life-exp" display="https://www.worldometers.info/demographics/ireland-demographics/ - life-exp" xr:uid="{D90181D1-E29A-4290-BA30-2C32D20C2B76}"/>
-    <hyperlink ref="B22" r:id="rId20" location="life-exp" display="https://www.worldometers.info/demographics/new-zealand-demographics/ - life-exp" xr:uid="{2F8C2B7B-6E91-4C2D-B16E-3F9CBC57A329}"/>
-    <hyperlink ref="B23" r:id="rId21" location="life-exp" display="https://www.worldometers.info/demographics/greece-demographics/ - life-exp" xr:uid="{CD7C01F2-63E7-449D-BB54-074AFDABF20B}"/>
-    <hyperlink ref="B24" r:id="rId22" location="life-exp" display="https://www.worldometers.info/demographics/luxembourg-demographics/ - life-exp" xr:uid="{6C3BD7BA-5708-4553-9E42-FA14D6AB17ED}"/>
-    <hyperlink ref="B25" r:id="rId23" location="life-exp" display="https://www.worldometers.info/demographics/netherlands-demographics/ - life-exp" xr:uid="{4D549FBA-0858-4C2F-BA85-0B69153D50CE}"/>
-    <hyperlink ref="B26" r:id="rId24" location="life-exp" display="https://www.worldometers.info/demographics/guadeloupe-demographics/ - life-exp" xr:uid="{FABDAE58-EDB8-407C-A0D2-0CA6CA0663E8}"/>
-    <hyperlink ref="B27" r:id="rId25" location="life-exp" display="https://www.worldometers.info/demographics/portugal-demographics/ - life-exp" xr:uid="{E4C128DD-2F9C-471E-8D4A-0A3B26755391}"/>
-    <hyperlink ref="B28" r:id="rId26" location="life-exp" display="https://www.worldometers.info/demographics/finland-demographics/ - life-exp" xr:uid="{8F552803-977B-4E0E-AE17-82EA0B8BFA38}"/>
-    <hyperlink ref="B29" r:id="rId27" location="life-exp" display="https://www.worldometers.info/demographics/belgium-demographics/ - life-exp" xr:uid="{FAA5798C-7EEA-4CB0-A111-5AAE2F7194B0}"/>
-    <hyperlink ref="B30" r:id="rId28" location="life-exp" display="https://www.worldometers.info/demographics/austria-demographics/ - life-exp" xr:uid="{908EE081-9EA7-4A41-B0F9-50E950DDF0F4}"/>
-    <hyperlink ref="B31" r:id="rId29" location="life-exp" display="https://www.worldometers.info/demographics/germany-demographics/ - life-exp" xr:uid="{09553D03-04CC-47C2-AAA4-4C2B25D82B7D}"/>
-    <hyperlink ref="B32" r:id="rId30" location="life-exp" display="https://www.worldometers.info/demographics/slovenia-demographics/ - life-exp" xr:uid="{C6FEE884-BB51-4EC2-A712-DBDF1E94EC3A}"/>
-    <hyperlink ref="B33" r:id="rId31" location="life-exp" display="https://www.worldometers.info/demographics/uk-demographics/ - life-exp" xr:uid="{49C4DE4A-0918-4890-92B4-CCDB2984FE43}"/>
-    <hyperlink ref="B34" r:id="rId32" location="life-exp" display="https://www.worldometers.info/demographics/reunion-demographics/ - life-exp" xr:uid="{504FED9F-0763-4E2A-BE5E-31A174585866}"/>
-    <hyperlink ref="B35" r:id="rId33" location="life-exp" display="https://www.worldometers.info/demographics/cyprus-demographics/ - life-exp" xr:uid="{CD34B144-4EDB-41DF-B25A-12CC30E002D6}"/>
-    <hyperlink ref="B36" r:id="rId34" location="life-exp" display="https://www.worldometers.info/demographics/denmark-demographics/ - life-exp" xr:uid="{E8B5176A-5B14-4722-93A3-C1C135A5B0EC}"/>
-    <hyperlink ref="B37" r:id="rId35" location="life-exp" display="https://www.worldometers.info/demographics/united-states-virgin-islands-demographics/ - life-exp" xr:uid="{A69F669B-2D08-4A1C-A39B-42D70FAD7258}"/>
-    <hyperlink ref="B38" r:id="rId36" location="life-exp" display="https://www.worldometers.info/demographics/taiwan-demographics/ - life-exp" xr:uid="{C9BD434E-8FD2-45B4-B836-461F40F71BEF}"/>
-    <hyperlink ref="B39" r:id="rId37" location="life-exp" display="https://www.worldometers.info/demographics/costa-rica-demographics/ - life-exp" xr:uid="{4457A8FC-1FED-41B4-AD45-E52A7E5F283D}"/>
-    <hyperlink ref="B40" r:id="rId38" location="life-exp" display="https://www.worldometers.info/demographics/guam-demographics/ - life-exp" xr:uid="{202D8F43-C3EB-41EE-8EEF-6B61E4839192}"/>
-    <hyperlink ref="B41" r:id="rId39" location="life-exp" display="https://www.worldometers.info/demographics/chile-demographics/ - life-exp" xr:uid="{4386DD10-FE70-4989-B40D-E9AB4E69FEF8}"/>
-    <hyperlink ref="B42" r:id="rId40" location="life-exp" display="https://www.worldometers.info/demographics/qatar-demographics/ - life-exp" xr:uid="{ED697B21-AFE3-47ED-BF72-79A16AE1113C}"/>
-    <hyperlink ref="B43" r:id="rId41" location="life-exp" display="https://www.worldometers.info/demographics/puerto-rico-demographics/ - life-exp" xr:uid="{AC966009-1BF5-4A34-BD42-88186CB04AA4}"/>
-    <hyperlink ref="B44" r:id="rId42" location="life-exp" display="https://www.worldometers.info/demographics/french-guiana-demographics/ - life-exp" xr:uid="{2274D840-B2FA-45A5-A9E1-4C6363499867}"/>
-    <hyperlink ref="B45" r:id="rId43" location="life-exp" display="https://www.worldometers.info/demographics/maldives-demographics/ - life-exp" xr:uid="{C8389EFC-68B3-4BE1-86D4-C75E69D30BBE}"/>
-    <hyperlink ref="B46" r:id="rId44" location="life-exp" display="https://www.worldometers.info/demographics/mayotte-demographics/ - life-exp" xr:uid="{5F7FE864-8FB2-4355-BA78-8EA69E4E7E7E}"/>
-    <hyperlink ref="B47" r:id="rId45" location="life-exp" display="https://www.worldometers.info/demographics/czechia-demographics/ - life-exp" xr:uid="{54C5EF0B-D863-491B-9A11-0CCCDFF8829C}"/>
-    <hyperlink ref="B48" r:id="rId46" location="life-exp" display="https://www.worldometers.info/demographics/barbados-demographics/ - life-exp" xr:uid="{83B80BAD-B9D2-402E-AB30-77B4A6F897B8}"/>
-    <hyperlink ref="B49" r:id="rId47" location="life-exp" display="https://www.worldometers.info/demographics/curacao-demographics/ - life-exp" xr:uid="{6D0C32AA-A0A4-4952-9146-3C13901377B4}"/>
-    <hyperlink ref="B50" r:id="rId48" location="life-exp" display="https://www.worldometers.info/demographics/poland-demographics/ - life-exp" xr:uid="{31467AC4-8666-415B-BDFB-F83411078C82}"/>
-    <hyperlink ref="B51" r:id="rId49" location="life-exp" display="https://www.worldometers.info/demographics/lebanon-demographics/ - life-exp" xr:uid="{B7658984-AD5D-4E3E-8D3E-ADDDB71C2178}"/>
-    <hyperlink ref="B52" r:id="rId50" location="life-exp" display="https://www.worldometers.info/demographics/cuba-demographics/ - life-exp" xr:uid="{7FB66896-D7B2-4DFB-B095-3653DEF3C405}"/>
-    <hyperlink ref="B53" r:id="rId51" location="life-exp" display="https://www.worldometers.info/demographics/estonia-demographics/ - life-exp" xr:uid="{6023234B-333F-4AEB-9185-4A01174D5403}"/>
-    <hyperlink ref="B54" r:id="rId52" location="life-exp" display="https://www.worldometers.info/demographics/us-demographics/ - life-exp" xr:uid="{9ED656F8-51A1-496A-AED3-84ECA43A57FB}"/>
-    <hyperlink ref="B55" r:id="rId53" location="life-exp" display="https://www.worldometers.info/demographics/panama-demographics/ - life-exp" xr:uid="{8F6AB03C-88E0-4863-8965-BB2350954039}"/>
-    <hyperlink ref="B56" r:id="rId54" location="life-exp" display="https://www.worldometers.info/demographics/croatia-demographics/ - life-exp" xr:uid="{FF3D3D64-31E8-4857-BA09-970317587FAD}"/>
-    <hyperlink ref="B57" r:id="rId55" location="life-exp" display="https://www.worldometers.info/demographics/albania-demographics/ - life-exp" xr:uid="{2E064D8B-C7D8-4419-9708-F0CADCE3D78F}"/>
-    <hyperlink ref="B58" r:id="rId56" location="life-exp" display="https://www.worldometers.info/demographics/oman-demographics/ - life-exp" xr:uid="{3EB37659-154F-4A5B-9E8F-C30F9EFA74AA}"/>
-    <hyperlink ref="B59" r:id="rId57" location="life-exp" display="https://www.worldometers.info/demographics/united-arab-emirates-demographics/ - life-exp" xr:uid="{FD8717EC-7516-4104-A34C-359CF8BD07B0}"/>
-    <hyperlink ref="B60" r:id="rId58" location="life-exp" display="https://www.worldometers.info/demographics/turkey-demographics/ - life-exp" xr:uid="{13D5E486-1B5F-4101-A2B3-1E20E74A380F}"/>
-    <hyperlink ref="B61" r:id="rId59" location="life-exp" display="https://www.worldometers.info/demographics/uruguay-demographics/ - life-exp" xr:uid="{BC6C6777-C263-4862-8C4E-0AA3A302DB50}"/>
-    <hyperlink ref="B62" r:id="rId60" location="life-exp" display="https://www.worldometers.info/demographics/french-polynesia-demographics/ - life-exp" xr:uid="{24B96D88-2B11-4617-881C-D33EC49AFEA4}"/>
-    <hyperlink ref="B63" r:id="rId61" location="life-exp" display="https://www.worldometers.info/demographics/new-caledonia-demographics/ - life-exp" xr:uid="{239D1850-2A2E-4FF5-AE13-D69C15E24208}"/>
-    <hyperlink ref="B64" r:id="rId62" location="life-exp" display="https://www.worldometers.info/demographics/slovakia-demographics/ - life-exp" xr:uid="{666E9A86-AFD9-487E-ABBE-EE3733548AA8}"/>
-    <hyperlink ref="B65" r:id="rId63" location="life-exp" display="https://www.worldometers.info/demographics/bosnia-and-herzegovina-demographics/ - life-exp" xr:uid="{0D919482-5012-4788-85EB-E98DFD6D72C0}"/>
-    <hyperlink ref="B66" r:id="rId64" location="life-exp" display="https://www.worldometers.info/demographics/colombia-demographics/ - life-exp" xr:uid="{F61E921C-BABE-439D-A08B-CD07CDAF5FDB}"/>
-    <hyperlink ref="B67" r:id="rId65" location="life-exp" display="https://www.worldometers.info/demographics/thailand-demographics/ - life-exp" xr:uid="{577A237A-5154-4F0F-B848-D39B2B7BB5A2}"/>
-    <hyperlink ref="B68" r:id="rId66" location="life-exp" display="https://www.worldometers.info/demographics/bahrain-demographics/ - life-exp" xr:uid="{7A4F104B-A98F-4FD3-8C75-0C1B86B26F95}"/>
-    <hyperlink ref="B69" r:id="rId67" location="life-exp" display="https://www.worldometers.info/demographics/ecuador-demographics/ - life-exp" xr:uid="{0C127CFF-0E99-4013-B6B2-1EDCC9FBCC3A}"/>
-    <hyperlink ref="B70" r:id="rId68" location="life-exp" display="https://www.worldometers.info/demographics/sri-lanka-demographics/ - life-exp" xr:uid="{D0FD8122-6561-4ADE-8BBD-004D0C410391}"/>
-    <hyperlink ref="B71" r:id="rId69" location="life-exp" display="https://www.worldometers.info/demographics/algeria-demographics/ - life-exp" xr:uid="{2F55EB86-2435-48F9-BAE0-9B820CE26BEF}"/>
-    <hyperlink ref="B72" r:id="rId70" location="life-exp" display="https://www.worldometers.info/demographics/antigua-and-barbuda-demographics/ - life-exp" xr:uid="{D92D9A3B-875C-4847-A9C2-A19ACEB71957}"/>
-    <hyperlink ref="B73" r:id="rId71" location="life-exp" display="https://www.worldometers.info/demographics/china-demographics/ - life-exp" xr:uid="{92B8D177-F878-44FA-BF74-AD934DC9CC71}"/>
-    <hyperlink ref="B74" r:id="rId72" location="life-exp" display="https://www.worldometers.info/demographics/peru-demographics/ - life-exp" xr:uid="{4F297A09-09EA-4113-964D-3347C57D8B03}"/>
-    <hyperlink ref="B75" r:id="rId73" location="life-exp" display="https://www.worldometers.info/demographics/morocco-demographics/ - life-exp" xr:uid="{9D2E7FB3-E6D6-46D0-97DB-F3A9AF3277FA}"/>
-    <hyperlink ref="B76" r:id="rId74" location="life-exp" display="https://www.worldometers.info/demographics/montenegro-demographics/ - life-exp" xr:uid="{36BC9AF1-C3DF-4D4E-9314-28F80B0D90F9}"/>
-    <hyperlink ref="B77" r:id="rId75" location="life-exp" display="https://www.worldometers.info/demographics/tunisia-demographics/ - life-exp" xr:uid="{E391A356-3068-4124-BFA1-8E709C0CA888}"/>
-    <hyperlink ref="B78" r:id="rId76" location="life-exp" display="https://www.worldometers.info/demographics/iran-demographics/ - life-exp" xr:uid="{78028B1E-B575-4A30-BC87-A948A5A174B8}"/>
-    <hyperlink ref="B79" r:id="rId77" location="life-exp" display="https://www.worldometers.info/demographics/hungary-demographics/ - life-exp" xr:uid="{9A2D360F-8B36-4103-8544-4678F4F51D3F}"/>
-    <hyperlink ref="B80" r:id="rId78" location="life-exp" display="https://www.worldometers.info/demographics/argentina-demographics/ - life-exp" xr:uid="{7A44ACED-AEDD-427B-8C8D-0882094313D9}"/>
-    <hyperlink ref="B81" r:id="rId79" location="life-exp" display="https://www.worldometers.info/demographics/aruba-demographics/ - life-exp" xr:uid="{93287E9C-1010-43CB-B36A-37C7B643BC77}"/>
-    <hyperlink ref="B82" r:id="rId80" location="life-exp" display="https://www.worldometers.info/demographics/saint-lucia-demographics/ - life-exp" xr:uid="{12FE9461-C44E-4861-B85D-E3385859BABA}"/>
-    <hyperlink ref="B83" r:id="rId81" location="life-exp" display="https://www.worldometers.info/demographics/malaysia-demographics/ - life-exp" xr:uid="{47A498EA-8C20-41F7-867C-B2311DE8656D}"/>
-    <hyperlink ref="B84" r:id="rId82" location="life-exp" display="https://www.worldometers.info/demographics/brazil-demographics/ - life-exp" xr:uid="{883504ED-92FF-4F82-8329-5C3E3B369C0F}"/>
-    <hyperlink ref="B85" r:id="rId83" location="life-exp" display="https://www.worldometers.info/demographics/romania-demographics/ - life-exp" xr:uid="{3D466FD2-8945-4F2F-9AD0-6C565DE3B8FB}"/>
-    <hyperlink ref="B86" r:id="rId84" location="life-exp" display="https://www.worldometers.info/demographics/serbia-demographics/ - life-exp" xr:uid="{8C3310E7-DD49-483F-A32C-B99ECE25A2BA}"/>
-    <hyperlink ref="B87" r:id="rId85" location="life-exp" display="https://www.worldometers.info/demographics/lithuania-demographics/ - life-exp" xr:uid="{2AC7AEA9-D392-4968-9C6E-975F9AE96072}"/>
-    <hyperlink ref="B88" r:id="rId86" location="life-exp" display="https://www.worldometers.info/demographics/brunei-darussalam-demographics/ - life-exp" xr:uid="{DE016054-1025-4D73-9BF4-03FBDD03817C}"/>
-    <hyperlink ref="B89" r:id="rId87" location="life-exp" display="https://www.worldometers.info/demographics/north-macedonia-demographics/ - life-exp" xr:uid="{CB442238-9A8D-46D0-9B6E-E9290712986F}"/>
-    <hyperlink ref="B90" r:id="rId88" location="life-exp" display="https://www.worldometers.info/demographics/syria-demographics/ - life-exp" xr:uid="{78EF8606-2528-4A3A-BA3D-85635CAF6807}"/>
-    <hyperlink ref="B91" r:id="rId89" location="life-exp" display="https://www.worldometers.info/demographics/honduras-demographics/ - life-exp" xr:uid="{24AC033B-B9CF-4920-A781-B87C083B2B08}"/>
-    <hyperlink ref="B92" r:id="rId90" location="life-exp" display="https://www.worldometers.info/demographics/kuwait-demographics/ - life-exp" xr:uid="{2ACFC694-85F8-4163-8500-AF838FF25042}"/>
-    <hyperlink ref="B93" r:id="rId91" location="life-exp" display="https://www.worldometers.info/demographics/vietnam-demographics/ - life-exp" xr:uid="{C1C3F968-595D-4FE3-A3F0-DE3CFF7504EB}"/>
-    <hyperlink ref="B94" r:id="rId92" location="life-exp" display="https://www.worldometers.info/demographics/latvia-demographics/ - life-exp" xr:uid="{53AF3D4A-FAE7-4A7C-9CC6-E0A898FC17DF}"/>
-    <hyperlink ref="B95" r:id="rId93" location="life-exp" display="https://www.worldometers.info/demographics/saudi-arabia-demographics/ - life-exp" xr:uid="{F2F25F16-B8D1-46EE-BD06-B406206DDF49}"/>
-    <hyperlink ref="B96" r:id="rId94" location="life-exp" display="https://www.worldometers.info/demographics/armenia-demographics/ - life-exp" xr:uid="{6573101A-A140-4E12-B59C-A4CCB7A91C99}"/>
-    <hyperlink ref="B97" r:id="rId95" location="life-exp" display="https://www.worldometers.info/demographics/mauritius-demographics/ - life-exp" xr:uid="{A43AA4C4-A5C8-4F50-A268-3C124F459A48}"/>
-    <hyperlink ref="B98" r:id="rId96" location="life-exp" display="https://www.worldometers.info/demographics/bulgaria-demographics/ - life-exp" xr:uid="{D5A94B03-160E-46A9-AD18-AFA5CD9188C1}"/>
-    <hyperlink ref="B99" r:id="rId97" location="life-exp" display="https://www.worldometers.info/demographics/mexico-demographics/ - life-exp" xr:uid="{6E5E55B4-C0BE-4316-81D6-102530A52A7F}"/>
-    <hyperlink ref="B100" r:id="rId98" location="life-exp" display="https://www.worldometers.info/demographics/nicaragua-demographics/ - life-exp" xr:uid="{794F06DA-A158-40D3-A0C9-8DD8E33F7DE4}"/>
-    <hyperlink ref="B101" r:id="rId99" location="life-exp" display="https://www.worldometers.info/demographics/belarus-demographics/ - life-exp" xr:uid="{763DD647-53CF-4356-9ABD-B1657F5B57CA}"/>
-    <hyperlink ref="B102" r:id="rId100" location="life-exp" display="https://www.worldometers.info/demographics/belize-demographics/ - life-exp" xr:uid="{91D1AAD0-1C99-4E93-B17D-357032FFACC4}"/>
-    <hyperlink ref="B103" r:id="rId101" location="life-exp" display="https://www.worldometers.info/demographics/guatemala-demographics/ - life-exp" xr:uid="{B696F991-14C0-4132-839B-85B1AB7B9227}"/>
-    <hyperlink ref="B104" r:id="rId102" location="life-exp" display="https://www.worldometers.info/demographics/jordan-demographics/ - life-exp" xr:uid="{BD8FE43B-FE63-4FFF-A0DD-0515E2683302}"/>
-    <hyperlink ref="B105" r:id="rId103" location="life-exp" display="https://www.worldometers.info/demographics/jamaica-demographics/ - life-exp" xr:uid="{674AFDE9-F1E8-47B8-8C0B-82919C83DE6D}"/>
-    <hyperlink ref="B106" r:id="rId104" location="life-exp" display="https://www.worldometers.info/demographics/dominican-republic-demographics/ - life-exp" xr:uid="{E516850B-4FB2-4142-BD19-E0D01C06EC54}"/>
-    <hyperlink ref="B107" r:id="rId105" location="life-exp" display="https://www.worldometers.info/demographics/state-of-palestine-demographics/ - life-exp" xr:uid="{4408A934-2FCD-46C1-A1A5-A22A0A12A8CC}"/>
-    <hyperlink ref="B108" r:id="rId106" location="life-exp" display="https://www.worldometers.info/demographics/paraguay-demographics/ - life-exp" xr:uid="{79DFC231-9B2C-40C8-9DB8-66C56B05F1D9}"/>
-    <hyperlink ref="B109" r:id="rId107" location="life-exp" display="https://www.worldometers.info/demographics/bahamas-demographics/ - life-exp" xr:uid="{8B814D52-0FB8-4B2D-BE72-2710E0A23999}"/>
-    <hyperlink ref="B110" r:id="rId108" location="life-exp" display="https://www.worldometers.info/demographics/georgia-demographics/ - life-exp" xr:uid="{80624279-D454-464A-9A7B-4808F238F2E3}"/>
-    <hyperlink ref="B111" r:id="rId109" location="life-exp" display="https://www.worldometers.info/demographics/micronesia-demographics/ - life-exp" xr:uid="{967D22C6-E854-4669-8644-B10B1AA171DB}"/>
-    <hyperlink ref="B112" r:id="rId110" location="life-exp" display="https://www.worldometers.info/demographics/el-salvador-demographics/ - life-exp" xr:uid="{6951E2E0-20A8-4487-9176-2692DAF35FFC}"/>
-    <hyperlink ref="B113" r:id="rId111" location="life-exp" display="https://www.worldometers.info/demographics/trinidad-and-tobago-demographics/ - life-exp" xr:uid="{D0EEFAD7-7C7D-4B5B-A376-FB41CF07ED58}"/>
-    <hyperlink ref="B114" r:id="rId112" location="life-exp" display="https://www.worldometers.info/demographics/kazakhstan-demographics/ - life-exp" xr:uid="{CB64B63E-AAC9-4CBD-A92A-999E57375840}"/>
-    <hyperlink ref="B115" r:id="rId113" location="life-exp" display="https://www.worldometers.info/demographics/samoa-demographics/ - life-exp" xr:uid="{395CE31E-3163-4526-9103-D746718C5E8D}"/>
-    <hyperlink ref="B116" r:id="rId114" location="life-exp" display="https://www.worldometers.info/demographics/seychelles-demographics/ - life-exp" xr:uid="{97AD0225-D0AF-4A24-A2EB-EE235D92DCF3}"/>
-    <hyperlink ref="B117" r:id="rId115" location="life-exp" display="https://www.worldometers.info/demographics/cabo-verde-demographics/ - life-exp" xr:uid="{FCF7BD04-A28D-4BD4-94F4-891181479D04}"/>
-    <hyperlink ref="B118" r:id="rId116" location="life-exp" display="https://www.worldometers.info/demographics/bangladesh-demographics/ - life-exp" xr:uid="{17A6754D-0530-487A-BB67-8EF54A368FA0}"/>
-    <hyperlink ref="B119" r:id="rId117" location="life-exp" display="https://www.worldometers.info/demographics/libya-demographics/ - life-exp" xr:uid="{5D7D53E1-AFFB-4F38-A40E-884290E8A594}"/>
-    <hyperlink ref="B120" r:id="rId118" location="life-exp" display="https://www.worldometers.info/demographics/solomon-islands-demographics/ - life-exp" xr:uid="{9DBEADB2-37FC-4B36-BB43-2A27A9F6A042}"/>
-    <hyperlink ref="B121" r:id="rId119" location="life-exp" display="https://www.worldometers.info/demographics/azerbaijan-demographics/ - life-exp" xr:uid="{AAD27790-A3E6-4D36-842D-879E2B740AA2}"/>
-    <hyperlink ref="B122" r:id="rId120" location="life-exp" display="https://www.worldometers.info/demographics/russia-demographics/ - life-exp" xr:uid="{39CFC67F-645F-47AA-A319-4C639054CE7E}"/>
-    <hyperlink ref="B123" r:id="rId121" location="life-exp" display="https://www.worldometers.info/demographics/saint-vincent-and-the-grenadines-demographics/ - life-exp" xr:uid="{05BAC960-E1C7-4D0A-B5AA-139702797DCB}"/>
-    <hyperlink ref="B124" r:id="rId122" location="life-exp" display="https://www.worldometers.info/demographics/north-korea-demographics/ - life-exp" xr:uid="{D16FCAF7-02BA-44DD-8ED3-32E383F786F1}"/>
-    <hyperlink ref="B125" r:id="rId123" location="life-exp" display="https://www.worldometers.info/demographics/bhutan-demographics/ - life-exp" xr:uid="{F721621E-6C56-4490-BD69-259C5A38A337}"/>
-    <hyperlink ref="B126" r:id="rId124" location="life-exp" display="https://www.worldometers.info/demographics/grenada-demographics/ - life-exp" xr:uid="{00CE3A8C-7B09-48D1-9EAE-F22486A4DC45}"/>
-    <hyperlink ref="B127" r:id="rId125" location="life-exp" display="https://www.worldometers.info/demographics/egypt-demographics/ - life-exp" xr:uid="{22B5944F-3AD2-4CC8-BBD5-728038E75E08}"/>
-    <hyperlink ref="B128" r:id="rId126" location="life-exp" display="https://www.worldometers.info/demographics/ukraine-demographics/ - life-exp" xr:uid="{A7980885-9357-4DD8-8ADA-79AD205B3436}"/>
-    <hyperlink ref="B129" r:id="rId127" location="life-exp" display="https://www.worldometers.info/demographics/bolivia-demographics/ - life-exp" xr:uid="{E34A8C01-33FD-469E-96F8-DA5B875DE76A}"/>
-    <hyperlink ref="B130" r:id="rId128" location="life-exp" display="https://www.worldometers.info/demographics/venezuela-demographics/ - life-exp" xr:uid="{ADAA1048-7D0A-42D8-A96C-B6CFEF596B9C}"/>
-    <hyperlink ref="B131" r:id="rId129" location="life-exp" display="https://www.worldometers.info/demographics/indonesia-demographics/ - life-exp" xr:uid="{5B7DA51F-0C65-46B0-B839-963A67E4307D}"/>
-    <hyperlink ref="B132" r:id="rId130" location="life-exp" display="https://www.worldometers.info/demographics/moldova-demographics/ - life-exp" xr:uid="{AADC3C73-797D-4B9F-BDC0-97CA3462EB32}"/>
-    <hyperlink ref="B133" r:id="rId131" location="life-exp" display="https://www.worldometers.info/demographics/suriname-demographics/ - life-exp" xr:uid="{F3A00B23-20BF-46CA-88A9-3D0126F3341E}"/>
-    <hyperlink ref="B134" r:id="rId132" location="life-exp" display="https://www.worldometers.info/demographics/uzbekistan-demographics/ - life-exp" xr:uid="{FABE735C-86D2-455A-A00E-C301DDFD006E}"/>
-    <hyperlink ref="B135" r:id="rId133" location="life-exp" display="https://www.worldometers.info/demographics/kyrgyzstan-demographics/ - life-exp" xr:uid="{F8906E42-0C27-499F-919A-5FADBAC28B25}"/>
-    <hyperlink ref="B136" r:id="rId134" location="life-exp" display="https://www.worldometers.info/demographics/tajikistan-demographics/ - life-exp" xr:uid="{E5F3D05B-3ACE-4A5E-91A4-69501B7492AF}"/>
-    <hyperlink ref="B137" r:id="rId135" location="life-exp" display="https://www.worldometers.info/demographics/nepal-demographics/ - life-exp" xr:uid="{A7307853-E2B9-4A71-AB7F-FAD25D42A46F}"/>
-    <hyperlink ref="B138" r:id="rId136" location="life-exp" display="https://www.worldometers.info/demographics/philippines-demographics/ - life-exp" xr:uid="{2D86D7B8-AA44-4D6E-826C-749DA4F2E5D9}"/>
-    <hyperlink ref="B139" r:id="rId137" location="life-exp" display="https://www.worldometers.info/demographics/tonga-demographics/ - life-exp" xr:uid="{8A00CA5D-E9A7-4656-80A7-1D4AF49C3A9A}"/>
-    <hyperlink ref="B140" r:id="rId138" location="life-exp" display="https://www.worldometers.info/demographics/western-sahara-demographics/ - life-exp" xr:uid="{522EA6FD-775B-4E6D-9F0C-EF8BE42F2B20}"/>
-    <hyperlink ref="B141" r:id="rId139" location="life-exp" display="https://www.worldometers.info/demographics/iraq-demographics/ - life-exp" xr:uid="{7F770AF6-705F-4C5A-80F7-E7CBD30BDE84}"/>
-    <hyperlink ref="B142" r:id="rId140" location="life-exp" display="https://www.worldometers.info/demographics/sao-tome-and-principe-demographics/ - life-exp" xr:uid="{0563484D-FA28-4A9A-9209-F28803F72383}"/>
-    <hyperlink ref="B143" r:id="rId141" location="life-exp" display="https://www.worldometers.info/demographics/vanuatu-demographics/ - life-exp" xr:uid="{E627E6AC-7874-4AB2-A44F-671D42816882}"/>
-    <hyperlink ref="B144" r:id="rId142" location="life-exp" display="https://www.worldometers.info/demographics/cambodia-demographics/ - life-exp" xr:uid="{38BC35A1-C1EA-4E20-85DB-523BCB33B3C8}"/>
-    <hyperlink ref="B145" r:id="rId143" location="life-exp" display="https://www.worldometers.info/demographics/mongolia-demographics/ - life-exp" xr:uid="{FD6C5540-4D01-4833-A34A-BF0C833F1339}"/>
-    <hyperlink ref="B146" r:id="rId144" location="life-exp" display="https://www.worldometers.info/demographics/india-demographics/ - life-exp" xr:uid="{9D67E7B7-05D3-44A8-BA55-99040E2F5D29}"/>
-    <hyperlink ref="B147" r:id="rId145" location="life-exp" display="https://www.worldometers.info/demographics/guyana-demographics/ - life-exp" xr:uid="{1E09C832-74FB-44DE-A8BD-E9F112DE3150}"/>
-    <hyperlink ref="B148" r:id="rId146" location="life-exp" display="https://www.worldometers.info/demographics/timor-leste-demographics/ - life-exp" xr:uid="{9C2D61B9-CA04-4154-B354-AE275ACBC281}"/>
-    <hyperlink ref="B149" r:id="rId147" location="life-exp" display="https://www.worldometers.info/demographics/rwanda-demographics/ - life-exp" xr:uid="{0E0416E3-67F2-4CA4-8D86-8D95B3DB72C4}"/>
-    <hyperlink ref="B150" r:id="rId148" location="life-exp" display="https://www.worldometers.info/demographics/botswana-demographics/ - life-exp" xr:uid="{5EDEE1F6-1F01-47BD-AA67-46AAC18B0487}"/>
-    <hyperlink ref="B151" r:id="rId149" location="life-exp" display="https://www.worldometers.info/demographics/kiribati-demographics/ - life-exp" xr:uid="{1C3B2889-3975-419A-8EAC-F94389E7C369}"/>
-    <hyperlink ref="B152" r:id="rId150" location="life-exp" display="https://www.worldometers.info/demographics/laos-demographics/ - life-exp" xr:uid="{E6E17EFB-E376-437E-B802-EF561C92EC53}"/>
-    <hyperlink ref="B153" r:id="rId151" location="life-exp" display="https://www.worldometers.info/demographics/senegal-demographics/ - life-exp" xr:uid="{44013687-513E-4FA5-830B-E8F2FE16B801}"/>
-    <hyperlink ref="B154" r:id="rId152" location="life-exp" display="https://www.worldometers.info/demographics/turkmenistan-demographics/ - life-exp" xr:uid="{864A2FCD-1B6F-4458-9532-597DFC07BFD0}"/>
-    <hyperlink ref="B155" r:id="rId153" location="life-exp" display="https://www.worldometers.info/demographics/micronesia-demographics/ - life-exp" xr:uid="{E886BEA6-0F1B-4200-A706-1E1632FD7F97}"/>
-    <hyperlink ref="B156" r:id="rId154" location="life-exp" display="https://www.worldometers.info/demographics/madagascar-demographics/ - life-exp" xr:uid="{B7F737BE-26F7-4025-9F99-0DD9497F5408}"/>
-    <hyperlink ref="B157" r:id="rId155" location="life-exp" display="https://www.worldometers.info/demographics/fiji-demographics/ - life-exp" xr:uid="{CFDA8FB1-BE32-4B98-864F-066029AF95FA}"/>
-    <hyperlink ref="B158" r:id="rId156" location="life-exp" display="https://www.worldometers.info/demographics/djibouti-demographics/ - life-exp" xr:uid="{E06ECF9C-A142-4FB4-8CBA-6B2EDFB5F6CD}"/>
-    <hyperlink ref="B159" r:id="rId157" location="life-exp" display="https://www.worldometers.info/demographics/ethiopia-demographics/ - life-exp" xr:uid="{41DCBBED-DD54-4B69-AE9D-9D693229D8B4}"/>
-    <hyperlink ref="B160" r:id="rId158" location="life-exp" display="https://www.worldometers.info/demographics/pakistan-demographics/ - life-exp" xr:uid="{C0D66AF2-5790-4A04-B643-0C06E2F52577}"/>
-    <hyperlink ref="B161" r:id="rId159" location="life-exp" display="https://www.worldometers.info/demographics/myanmar-demographics/ - life-exp" xr:uid="{57BBDDFA-08F8-43C3-AEFF-F8C56F886945}"/>
-    <hyperlink ref="B162" r:id="rId160" location="life-exp" display="https://www.worldometers.info/demographics/eritrea-demographics/ - life-exp" xr:uid="{DB783F76-7B51-47BD-8FC1-A069C17476C1}"/>
-    <hyperlink ref="B163" r:id="rId161" location="life-exp" display="https://www.worldometers.info/demographics/kenya-demographics/ - life-exp" xr:uid="{9B29082C-C742-492A-9A22-07EC6E9D58C0}"/>
-    <hyperlink ref="B164" r:id="rId162" location="life-exp" display="https://www.worldometers.info/demographics/gabon-demographics/ - life-exp" xr:uid="{EFEECB2B-BDB5-4051-BEB7-F320BE022123}"/>
-    <hyperlink ref="B165" r:id="rId163" location="life-exp" display="https://www.worldometers.info/demographics/yemen-demographics/ - life-exp" xr:uid="{4020F637-A265-490D-ACEB-112EF4E1539F}"/>
-    <hyperlink ref="B166" r:id="rId164" location="life-exp" display="https://www.worldometers.info/demographics/tanzania-demographics/ - life-exp" xr:uid="{3B8207FA-7610-4A2A-BC60-3BCD9426C3D4}"/>
-    <hyperlink ref="B167" r:id="rId165" location="life-exp" display="https://www.worldometers.info/demographics/sudan-demographics/ - life-exp" xr:uid="{C764A163-307F-425F-BA78-98349A8FDAA3}"/>
-    <hyperlink ref="B168" r:id="rId166" location="life-exp" display="https://www.worldometers.info/demographics/afghanistan-demographics/ - life-exp" xr:uid="{9ED51E9E-29C3-42F8-843D-7F59B0C5F3C3}"/>
-    <hyperlink ref="B169" r:id="rId167" location="life-exp" display="https://www.worldometers.info/demographics/malawi-demographics/ - life-exp" xr:uid="{950C2621-F402-4B17-97FA-63694AAC0288}"/>
-    <hyperlink ref="B170" r:id="rId168" location="life-exp" display="https://www.worldometers.info/demographics/mauritania-demographics/ - life-exp" xr:uid="{F0099850-1D3A-483C-969A-0DF8B1A97B59}"/>
-    <hyperlink ref="B171" r:id="rId169" location="life-exp" display="https://www.worldometers.info/demographics/papua-new-guinea-demographics/ - life-exp" xr:uid="{F393F6E5-A108-4013-9941-CA2BB625CFB2}"/>
-    <hyperlink ref="B172" r:id="rId170" location="life-exp" display="https://www.worldometers.info/demographics/congo-demographics/ - life-exp" xr:uid="{09616512-356A-4289-AFC5-62B0BFB2E608}"/>
-    <hyperlink ref="B173" r:id="rId171" location="life-exp" display="https://www.worldometers.info/demographics/comoros-demographics/ - life-exp" xr:uid="{28FA91C1-213E-4485-A965-800CD2D079E1}"/>
-    <hyperlink ref="B174" r:id="rId172" location="life-exp" display="https://www.worldometers.info/demographics/liberia-demographics/ - life-exp" xr:uid="{2C82A906-4F64-47EB-8384-2BB2225A472F}"/>
-    <hyperlink ref="B175" r:id="rId173" location="life-exp" display="https://www.worldometers.info/demographics/haiti-demographics/ - life-exp" xr:uid="{FED8440B-8E41-4F02-BFE7-F736A0D27564}"/>
-    <hyperlink ref="B176" r:id="rId174" location="life-exp" display="https://www.worldometers.info/demographics/ghana-demographics/ - life-exp" xr:uid="{B1391CE1-1587-40A9-A90D-4129BB851741}"/>
-    <hyperlink ref="B177" r:id="rId175" location="life-exp" display="https://www.worldometers.info/demographics/south-africa-demographics/ - life-exp" xr:uid="{5045C591-171B-4447-99D9-1C136992FAE0}"/>
-    <hyperlink ref="B178" r:id="rId176" location="life-exp" display="https://www.worldometers.info/demographics/namibia-demographics/ - life-exp" xr:uid="{3E4DCF97-60C6-469F-BB31-7CBF8F3170D7}"/>
-    <hyperlink ref="B179" r:id="rId177" location="life-exp" display="https://www.worldometers.info/demographics/zambia-demographics/ - life-exp" xr:uid="{A1311FFA-0A44-402E-8684-31D71CBE55C8}"/>
-    <hyperlink ref="B180" r:id="rId178" location="life-exp" display="https://www.worldometers.info/demographics/uganda-demographics/ - life-exp" xr:uid="{FABF5B51-F640-4137-83A6-08101D400F4A}"/>
-    <hyperlink ref="B181" r:id="rId179" location="life-exp" display="https://www.worldometers.info/demographics/niger-demographics/ - life-exp" xr:uid="{21B83B21-B087-4FA7-AC1B-91D52F306FDE}"/>
-    <hyperlink ref="B182" r:id="rId180" location="life-exp" display="https://www.worldometers.info/demographics/gambia-demographics/ - life-exp" xr:uid="{BE07205C-62F2-405E-85C0-FBF9D5067422}"/>
-    <hyperlink ref="B183" r:id="rId181" location="life-exp" display="https://www.worldometers.info/demographics/burkina-faso-demographics/ - life-exp" xr:uid="{8F4F4632-1E55-4094-8A1A-F5DDCF776AC1}"/>
-    <hyperlink ref="B184" r:id="rId182" location="life-exp" display="https://www.worldometers.info/demographics/benin-demographics/ - life-exp" xr:uid="{35FB752B-4B31-4CED-A698-1208044EF963}"/>
-    <hyperlink ref="B185" r:id="rId183" location="life-exp" display="https://www.worldometers.info/demographics/burundi-demographics/ - life-exp" xr:uid="{8B882F13-0625-468E-9C4D-D67905325264}"/>
-    <hyperlink ref="B186" r:id="rId184" location="life-exp" display="https://www.worldometers.info/demographics/guinea-demographics/ - life-exp" xr:uid="{580B9BB1-3D8E-4262-B6B2-7890707319EB}"/>
-    <hyperlink ref="B187" r:id="rId185" location="life-exp" display="https://www.worldometers.info/demographics/angola-demographics/ - life-exp" xr:uid="{C5860D63-AE2E-4A18-BEFF-804F3BF84699}"/>
-    <hyperlink ref="B188" r:id="rId186" location="life-exp" display="https://www.worldometers.info/demographics/zimbabwe-demographics/ - life-exp" xr:uid="{403813F2-BCEA-40AD-B96A-3D32CC2C6B9F}"/>
-    <hyperlink ref="B189" r:id="rId187" location="life-exp" display="https://www.worldometers.info/demographics/togo-demographics/ - life-exp" xr:uid="{1A90A47B-EA79-4C08-937B-1557D647F66B}"/>
-    <hyperlink ref="B190" r:id="rId188" location="life-exp" display="https://www.worldometers.info/demographics/mozambique-demographics/ - life-exp" xr:uid="{2AA95D85-8D1F-4FDF-AC65-C70EECDADA4B}"/>
-    <hyperlink ref="B191" r:id="rId189" location="life-exp" display="https://www.worldometers.info/demographics/democratic-republic-of-the-congo-demographics/ - life-exp" xr:uid="{B37C5A61-1162-4831-8B8A-5EF88539665E}"/>
-    <hyperlink ref="B192" r:id="rId190" location="life-exp" display="https://www.worldometers.info/demographics/swaziland-demographics/ - life-exp" xr:uid="{822582B7-C91E-4403-A884-A3FCF080F28A}"/>
-    <hyperlink ref="B193" r:id="rId191" location="life-exp" display="https://www.worldometers.info/demographics/mali-demographics/ - life-exp" xr:uid="{4D5D401B-1113-4CC5-9EA7-E5C1D5415BFE}"/>
-    <hyperlink ref="B194" r:id="rId192" location="life-exp" display="https://www.worldometers.info/demographics/cameroon-demographics/ - life-exp" xr:uid="{C9786F3B-7190-4599-B83A-71AB7F540818}"/>
-    <hyperlink ref="B195" r:id="rId193" location="life-exp" display="https://www.worldometers.info/demographics/equatorial-guinea-demographics/ - life-exp" xr:uid="{3693FC28-3F58-43E5-8FFD-603E66F86CCE}"/>
-    <hyperlink ref="B196" r:id="rId194" location="life-exp" display="https://www.worldometers.info/demographics/guinea-bissau-demographics/ - life-exp" xr:uid="{D68851B3-5A12-4670-B92C-5320EDCCD093}"/>
-    <hyperlink ref="B197" r:id="rId195" location="life-exp" display="https://www.worldometers.info/demographics/cote-d-ivoire-demographics/ - life-exp" xr:uid="{6A2E2B2A-C37D-4C31-93D7-91EBD3E70D38}"/>
-    <hyperlink ref="B198" r:id="rId196" location="life-exp" display="https://www.worldometers.info/demographics/south-sudan-demographics/ - life-exp" xr:uid="{19634E0B-6109-475F-9F4A-672459DE99EE}"/>
-    <hyperlink ref="B199" r:id="rId197" location="life-exp" display="https://www.worldometers.info/demographics/somalia-demographics/ - life-exp" xr:uid="{3FA13F65-1745-488F-A9B3-9BE015FFDAAF}"/>
-    <hyperlink ref="B200" r:id="rId198" location="life-exp" display="https://www.worldometers.info/demographics/sierra-leone-demographics/ - life-exp" xr:uid="{587BA3DF-DE6E-43E0-8E5A-A04FE07E4317}"/>
-    <hyperlink ref="B201" r:id="rId199" location="life-exp" display="https://www.worldometers.info/demographics/nigeria-demographics/ - life-exp" xr:uid="{1298988A-90AC-46C5-8282-2598894663F7}"/>
-    <hyperlink ref="B202" r:id="rId200" location="life-exp" display="https://www.worldometers.info/demographics/lesotho-demographics/ - life-exp" xr:uid="{B9B280F7-25A2-4B7A-884B-38BF7473D9E6}"/>
-    <hyperlink ref="B203" r:id="rId201" location="life-exp" display="https://www.worldometers.info/demographics/chad-demographics/ - life-exp" xr:uid="{3409DAB5-787A-403E-9178-004D48C20498}"/>
-    <hyperlink ref="B204" r:id="rId202" location="life-exp" display="https://www.worldometers.info/demographics/central-african-republic-demographics/ - life-exp" xr:uid="{E5F1CCC2-1DF5-447E-A22B-93884C369BA3}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId203"/>
 </worksheet>
 </file>